--- a/Code/Results/Cases/Case_5_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_49/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.627786538138992</v>
+        <v>2.763525579814029</v>
       </c>
       <c r="C2">
-        <v>0.9346713322110531</v>
+        <v>0.6541546307382191</v>
       </c>
       <c r="D2">
-        <v>0.04806912741452862</v>
+        <v>0.07580458887587582</v>
       </c>
       <c r="E2">
-        <v>0.03895313701234571</v>
+        <v>0.1323650611848137</v>
       </c>
       <c r="F2">
-        <v>2.516410488867706</v>
+        <v>1.868337314274939</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.395859483617244</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.215304868750934</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.7683262127672634</v>
       </c>
       <c r="L2">
-        <v>0.171889276539023</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7143082184218983</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.8160506326790369</v>
+      </c>
+      <c r="O2">
+        <v>1.189214327913291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.263490991024412</v>
+        <v>2.396016186325312</v>
       </c>
       <c r="C3">
-        <v>0.8038515185431265</v>
+        <v>0.5649518692445668</v>
       </c>
       <c r="D3">
-        <v>0.04692388725312568</v>
+        <v>0.06706160451502541</v>
       </c>
       <c r="E3">
-        <v>0.03618038109974364</v>
+        <v>0.1176560703359044</v>
       </c>
       <c r="F3">
-        <v>2.235324679651299</v>
+        <v>1.717564701309101</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1.266375001622905</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.1917276064275697</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6652782072848638</v>
       </c>
       <c r="L3">
-        <v>0.1492549410834769</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6156478379635928</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.8678656815879719</v>
+      </c>
+      <c r="O3">
+        <v>1.097629730826171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.043183394988887</v>
+        <v>2.173444693083411</v>
       </c>
       <c r="C4">
-        <v>0.7248872400971607</v>
+        <v>0.5108626995195209</v>
       </c>
       <c r="D4">
-        <v>0.0463289456249818</v>
+        <v>0.06174831170906714</v>
       </c>
       <c r="E4">
-        <v>0.03455235620514152</v>
+        <v>0.1088134214945349</v>
       </c>
       <c r="F4">
-        <v>2.068312809781588</v>
+        <v>1.629111103098339</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1.190009801824246</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.1776384203028982</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.60284854178866</v>
       </c>
       <c r="L4">
-        <v>0.1356892858660323</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5561814948262764</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.9012753088558156</v>
+      </c>
+      <c r="O4">
+        <v>1.044206152397237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.95411991935012</v>
+        <v>2.083416618079582</v>
       </c>
       <c r="C5">
-        <v>0.692994489994021</v>
+        <v>0.4889666702777902</v>
       </c>
       <c r="D5">
-        <v>0.04611096429905004</v>
+        <v>0.05959539662720204</v>
       </c>
       <c r="E5">
-        <v>0.03390584105146921</v>
+        <v>0.1052525959257125</v>
       </c>
       <c r="F5">
-        <v>2.001493131318895</v>
+        <v>1.594012444314856</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.159593669454736</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1719844670261566</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5775906650034415</v>
       </c>
       <c r="L5">
-        <v>0.130233796476638</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5321876700585761</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.9152740329998998</v>
+      </c>
+      <c r="O5">
+        <v>1.023081455339806</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.939370420151164</v>
+        <v>2.068505227022001</v>
       </c>
       <c r="C6">
-        <v>0.68771444991674</v>
+        <v>0.485338942685047</v>
       </c>
       <c r="D6">
-        <v>0.04607617069945036</v>
+        <v>0.05923860717297202</v>
       </c>
       <c r="E6">
-        <v>0.03379945973061815</v>
+        <v>0.1046637638050747</v>
       </c>
       <c r="F6">
-        <v>1.990468119496114</v>
+        <v>1.588239043890297</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.154583204887089</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.1710506426326788</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5734068429206403</v>
       </c>
       <c r="L6">
-        <v>0.129332004978572</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5282168530957776</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0.9176212321997816</v>
+      </c>
+      <c r="O6">
+        <v>1.019611037193712</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.041979532237576</v>
+        <v>2.17222795404814</v>
       </c>
       <c r="C7">
-        <v>0.7244560361537253</v>
+        <v>0.5105668443172249</v>
       </c>
       <c r="D7">
-        <v>0.04632591024971688</v>
+        <v>0.06171922888209735</v>
       </c>
       <c r="E7">
-        <v>0.0345435708453099</v>
+        <v>0.1087652324823054</v>
       </c>
       <c r="F7">
-        <v>2.06740684430163</v>
+        <v>1.628634029574314</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1.189596859547507</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.17756182733158</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.6025072021714166</v>
       </c>
       <c r="L7">
-        <v>0.1356154307715975</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5558569877726214</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0.9014625671536116</v>
+      </c>
+      <c r="O7">
+        <v>1.04391871914352</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.50139277390457</v>
+        <v>2.636104225260624</v>
       </c>
       <c r="C8">
-        <v>0.889246945524178</v>
+        <v>0.6232398961713272</v>
       </c>
       <c r="D8">
-        <v>0.04765003510378563</v>
+        <v>0.07277765088114307</v>
       </c>
       <c r="E8">
-        <v>0.03798049848107077</v>
+        <v>0.1272511978029378</v>
       </c>
       <c r="F8">
-        <v>2.418231740626069</v>
+        <v>1.815439422772414</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1.350507472842779</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2070888235857637</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.7326022024494137</v>
       </c>
       <c r="L8">
-        <v>0.1640092141881198</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6800339075699071</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0.8335747444829273</v>
+      </c>
+      <c r="O8">
+        <v>1.15701474069806</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.435887848807226</v>
+        <v>3.57534918924091</v>
       </c>
       <c r="C9">
-        <v>1.22605108737946</v>
+        <v>0.8508850834722921</v>
       </c>
       <c r="D9">
-        <v>0.05124631480578046</v>
+        <v>0.09497533799287083</v>
       </c>
       <c r="E9">
-        <v>0.04540208704246851</v>
+        <v>0.1652402621149278</v>
       </c>
       <c r="F9">
-        <v>3.158704336608821</v>
+        <v>2.21890746403497</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1.695307917722587</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2685572278074062</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.9958517684747648</v>
       </c>
       <c r="L9">
-        <v>0.2228730784419497</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9344149914344797</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.7139429613708543</v>
+      </c>
+      <c r="O9">
+        <v>1.40410263296792</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.153875973655545</v>
+        <v>4.291441801557312</v>
       </c>
       <c r="C10">
-        <v>1.486412637729927</v>
+        <v>1.024223212763843</v>
       </c>
       <c r="D10">
-        <v>0.05472483952186735</v>
+        <v>0.1117153069655217</v>
       </c>
       <c r="E10">
-        <v>0.05141429836113787</v>
+        <v>0.194584158487821</v>
       </c>
       <c r="F10">
-        <v>3.747889624077402</v>
+        <v>2.54486337353228</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1.973384087958706</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3166572259964511</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.196478449544088</v>
       </c>
       <c r="L10">
-        <v>0.2689378649348839</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1.131211143180217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.6355737736952136</v>
+      </c>
+      <c r="O10">
+        <v>1.605736220413419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.490238817849388</v>
+        <v>4.624898288701218</v>
       </c>
       <c r="C11">
-        <v>1.608888904803962</v>
+        <v>1.104915234958696</v>
       </c>
       <c r="D11">
-        <v>0.05655032237574176</v>
+        <v>0.1194546584984266</v>
       </c>
       <c r="E11">
-        <v>0.05430876363224257</v>
+        <v>0.2083397923319055</v>
       </c>
       <c r="F11">
-        <v>4.029218073545877</v>
+        <v>2.70131534062395</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>2.10709533290499</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.339372603371487</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.289891947272068</v>
       </c>
       <c r="L11">
-        <v>0.2907381776259399</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.223758997126126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.6023217395382829</v>
+      </c>
+      <c r="O11">
+        <v>1.703019735378604</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.619300263322486</v>
+        <v>4.752470120627834</v>
       </c>
       <c r="C12">
-        <v>1.655970130809123</v>
+        <v>1.135784788370643</v>
       </c>
       <c r="D12">
-        <v>0.05728274800267741</v>
+        <v>0.1224060564437366</v>
       </c>
       <c r="E12">
-        <v>0.0554314759087724</v>
+        <v>0.2136162319099881</v>
       </c>
       <c r="F12">
-        <v>4.138008305449858</v>
+        <v>2.761902143175035</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>2.158946991670447</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.3481129156347293</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.32562869729928</v>
       </c>
       <c r="L12">
-        <v>0.2991379167576582</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.259325419618662</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.5901070702533957</v>
+      </c>
+      <c r="O12">
+        <v>1.740771571472351</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.591424433870827</v>
+        <v>4.72493416223989</v>
       </c>
       <c r="C13">
-        <v>1.645796966481839</v>
+        <v>1.129121703756709</v>
       </c>
       <c r="D13">
-        <v>0.05712306632463537</v>
+        <v>0.1217694523299713</v>
       </c>
       <c r="E13">
-        <v>0.05518842974064242</v>
+        <v>0.2124767005014547</v>
       </c>
       <c r="F13">
-        <v>4.114471924833595</v>
+        <v>2.74879113705822</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2.147722444128377</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3462240540294772</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.317915063034164</v>
       </c>
       <c r="L13">
-        <v>0.2973220553747709</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.251640891280161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.5927203863889829</v>
+      </c>
+      <c r="O13">
+        <v>1.732598490745644</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.500821142841858</v>
+        <v>4.635366482895449</v>
       </c>
       <c r="C14">
-        <v>1.612747465860764</v>
+        <v>1.107448312752126</v>
       </c>
       <c r="D14">
-        <v>0.05660971531481351</v>
+        <v>0.1196970401840503</v>
       </c>
       <c r="E14">
-        <v>0.05440057266973852</v>
+        <v>0.2087724805362683</v>
       </c>
       <c r="F14">
-        <v>4.038120907757872</v>
+        <v>2.706271932827462</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>2.111335649018059</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3400887843101827</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.292824419289545</v>
       </c>
       <c r="L14">
-        <v>0.2914261905192816</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.226674096086555</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.6013090733383777</v>
+      </c>
+      <c r="O14">
+        <v>1.706106611008352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.445553138701996</v>
+        <v>4.580678959571003</v>
       </c>
       <c r="C15">
-        <v>1.592599079040099</v>
+        <v>1.094215078946206</v>
       </c>
       <c r="D15">
-        <v>0.05630083482186166</v>
+        <v>0.1184304091963497</v>
       </c>
       <c r="E15">
-        <v>0.05392157652889296</v>
+        <v>0.2065126113785709</v>
       </c>
       <c r="F15">
-        <v>3.991658800057337</v>
+        <v>2.680407735267011</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>2.089212174550042</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3363493785753775</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.277504686341274</v>
       </c>
       <c r="L15">
-        <v>0.2878343533565015</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.211451778498578</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.6066200351283584</v>
+      </c>
+      <c r="O15">
+        <v>1.690002029150918</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.132113487250308</v>
+        <v>4.269820473078255</v>
       </c>
       <c r="C16">
-        <v>1.478499713032932</v>
+        <v>1.018990841988</v>
       </c>
       <c r="D16">
-        <v>0.05461093774774639</v>
+        <v>0.1112122548416323</v>
       </c>
       <c r="E16">
-        <v>0.0512286519668983</v>
+        <v>0.193694125844722</v>
       </c>
       <c r="F16">
-        <v>3.729800087909041</v>
+        <v>2.534817110619059</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1.964805721328347</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3151910439066654</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.19042135998076</v>
       </c>
       <c r="L16">
-        <v>0.2675320485179213</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1.125230803749993</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.6377978031287341</v>
+      </c>
+      <c r="O16">
+        <v>1.59949975001507</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.942514996164277</v>
+        <v>4.081220738450099</v>
       </c>
       <c r="C17">
-        <v>1.40961792773777</v>
+        <v>0.9733471503140265</v>
       </c>
       <c r="D17">
-        <v>0.0536405920892804</v>
+        <v>0.1068178701677596</v>
       </c>
       <c r="E17">
-        <v>0.04961994687350213</v>
+        <v>0.1859406721236212</v>
       </c>
       <c r="F17">
-        <v>3.572794527883133</v>
+        <v>2.44770754245755</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1.890453996711102</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3024372766016796</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.1375851486861</v>
       </c>
       <c r="L17">
-        <v>0.255308932636936</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1.073168523278945</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.6575603879360727</v>
+      </c>
+      <c r="O17">
+        <v>1.545479733575604</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.834360778774055</v>
+        <v>3.973455393077529</v>
       </c>
       <c r="C18">
-        <v>1.370370552115787</v>
+        <v>0.9472640079309258</v>
       </c>
       <c r="D18">
-        <v>0.05310492818848189</v>
+        <v>0.104301845490852</v>
       </c>
       <c r="E18">
-        <v>0.04870942162605019</v>
+        <v>0.181518798140317</v>
       </c>
       <c r="F18">
-        <v>3.48371797158336</v>
+        <v>2.39836260794543</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1.8483554441666</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.295178956049071</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.107393664605297</v>
       </c>
       <c r="L18">
-        <v>0.248356514540248</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1.043502494789081</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0.6691509109573914</v>
+      </c>
+      <c r="O18">
+        <v>1.514924578202738</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.797887797277838</v>
+        <v>3.937084761551205</v>
       </c>
       <c r="C19">
-        <v>1.357142490096919</v>
+        <v>0.9384604989483591</v>
       </c>
       <c r="D19">
-        <v>0.05292724568825946</v>
+        <v>0.1034518592803551</v>
       </c>
       <c r="E19">
-        <v>0.04840356411945024</v>
+        <v>0.180027848157458</v>
       </c>
       <c r="F19">
-        <v>3.453759606293545</v>
+        <v>2.381780729500377</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1.834211017372098</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2927341639674239</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.097203892637523</v>
       </c>
       <c r="L19">
-        <v>0.2460152993942231</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1.033503575186138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.6731127487110768</v>
+      </c>
+      <c r="O19">
+        <v>1.504664475797526</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.962603223114002</v>
+        <v>4.101222474878682</v>
       </c>
       <c r="C20">
-        <v>1.416911231620475</v>
+        <v>0.97818808163413</v>
       </c>
       <c r="D20">
-        <v>0.05374152161316914</v>
+        <v>0.1072844494864853</v>
       </c>
       <c r="E20">
-        <v>0.04978964361446714</v>
+        <v>0.1867620764359685</v>
       </c>
       <c r="F20">
-        <v>3.589378528449686</v>
+        <v>2.4569008931106</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1.898298652686208</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3037868088888018</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.143188736584491</v>
       </c>
       <c r="L20">
-        <v>0.2566018773135212</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1.078681206625774</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0.6554332635811946</v>
+      </c>
+      <c r="O20">
+        <v>1.551176104086139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.527385198183595</v>
+        <v>4.661637780399019</v>
       </c>
       <c r="C21">
-        <v>1.622434780914659</v>
+        <v>1.113805392740403</v>
       </c>
       <c r="D21">
-        <v>0.05675932725306154</v>
+        <v>0.1203051727591742</v>
       </c>
       <c r="E21">
-        <v>0.05463123000257042</v>
+        <v>0.2098585914511872</v>
       </c>
       <c r="F21">
-        <v>4.060482778258717</v>
+        <v>2.718723006045934</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>2.121988689488475</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3418869441609473</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.300183829151678</v>
       </c>
       <c r="L21">
-        <v>0.2931538286139883</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.233992570783684</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0.5987758546250888</v>
+      </c>
+      <c r="O21">
+        <v>1.713862175421895</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.906510488124241</v>
+        <v>5.035580342983167</v>
       </c>
       <c r="C22">
-        <v>1.760920490576382</v>
+        <v>1.204292218614853</v>
       </c>
       <c r="D22">
-        <v>0.05897522059919424</v>
+        <v>0.12893702317389</v>
       </c>
       <c r="E22">
-        <v>0.05795292052986412</v>
+        <v>0.2253518083452164</v>
       </c>
       <c r="F22">
-        <v>4.381734820128116</v>
+        <v>2.897753022288128</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>2.275388910113648</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3676051465887156</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.404935819184331</v>
       </c>
       <c r="L22">
-        <v>0.3178978892591857</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.338581856531164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0.5639633335364351</v>
+      </c>
+      <c r="O22">
+        <v>1.825569914855592</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.703141359649692</v>
+        <v>4.835227914138329</v>
       </c>
       <c r="C23">
-        <v>1.68658141016806</v>
+        <v>1.155810368435652</v>
       </c>
       <c r="D23">
-        <v>0.05776792714874546</v>
+        <v>0.1243178566739118</v>
       </c>
       <c r="E23">
-        <v>0.05616428856200884</v>
+        <v>0.2170430841359092</v>
       </c>
       <c r="F23">
-        <v>4.208925817940354</v>
+        <v>2.801416575941829</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>2.192789445778473</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3537973153582357</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.348811534941632</v>
       </c>
       <c r="L23">
-        <v>0.3046047176311006</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.282446370392563</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0.5823288808632157</v>
+      </c>
+      <c r="O23">
+        <v>1.765415621812011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.953518713918186</v>
+        <v>4.092177638433213</v>
       </c>
       <c r="C24">
-        <v>1.413612836218306</v>
+        <v>0.975999007974707</v>
       </c>
       <c r="D24">
-        <v>0.05369582267915263</v>
+        <v>0.1070734768975967</v>
       </c>
       <c r="E24">
-        <v>0.04971287932201562</v>
+        <v>0.1863906090434568</v>
       </c>
       <c r="F24">
-        <v>3.581877226609578</v>
+        <v>2.452742300637453</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1.894750080989951</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.303176456247229</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.14065478303327</v>
       </c>
       <c r="L24">
-        <v>0.2560171056764418</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1.076188102515587</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0.6563942263858138</v>
+      </c>
+      <c r="O24">
+        <v>1.548599220763236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.178444619079016</v>
+        <v>3.317316908149223</v>
       </c>
       <c r="C25">
-        <v>1.133039057959024</v>
+        <v>0.7883905412317631</v>
       </c>
       <c r="D25">
-        <v>0.05014494255495805</v>
+        <v>0.08890389350169414</v>
       </c>
       <c r="E25">
-        <v>0.04330758812599989</v>
+        <v>0.1547409240329713</v>
       </c>
       <c r="F25">
-        <v>2.951511403967544</v>
+        <v>2.105115694265322</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1.598238423640012</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.2514725664479158</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.9235463531292254</v>
       </c>
       <c r="L25">
-        <v>0.2065244033938356</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8641222541105122</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.7447364949576141</v>
+      </c>
+      <c r="O25">
+        <v>1.334097498427042</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_49/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.763525579814029</v>
+        <v>1.033607886293652</v>
       </c>
       <c r="C2">
-        <v>0.6541546307382191</v>
+        <v>0.1466449438430431</v>
       </c>
       <c r="D2">
-        <v>0.07580458887587582</v>
+        <v>0.2033233391431395</v>
       </c>
       <c r="E2">
-        <v>0.1323650611848137</v>
+        <v>0.1699855747977637</v>
       </c>
       <c r="F2">
-        <v>1.868337314274939</v>
+        <v>0.87077519303363</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.215304868750934</v>
+        <v>0.1863977882620489</v>
       </c>
       <c r="K2">
-        <v>0.7683262127672634</v>
+        <v>1.085068775827608</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8160506326790369</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.189214327913291</v>
+        <v>2.008428893667457</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.396016186325312</v>
+        <v>0.8976550917182919</v>
       </c>
       <c r="C3">
-        <v>0.5649518692445668</v>
+        <v>0.1303288688674229</v>
       </c>
       <c r="D3">
-        <v>0.06706160451502541</v>
+        <v>0.1786697398324861</v>
       </c>
       <c r="E3">
-        <v>0.1176560703359044</v>
+        <v>0.1509606887579977</v>
       </c>
       <c r="F3">
-        <v>1.717564701309101</v>
+        <v>0.8414780711401022</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1917276064275697</v>
+        <v>0.1671207354746329</v>
       </c>
       <c r="K3">
-        <v>0.6652782072848638</v>
+        <v>0.943639646971917</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8678656815879719</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.097629730826171</v>
+        <v>1.987315424430818</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.173444693083411</v>
+        <v>0.8144252000656138</v>
       </c>
       <c r="C4">
-        <v>0.5108626995195209</v>
+        <v>0.1203045468584776</v>
       </c>
       <c r="D4">
-        <v>0.06174831170906714</v>
+        <v>0.1636464183268771</v>
       </c>
       <c r="E4">
-        <v>0.1088134214945349</v>
+        <v>0.1394391983443306</v>
       </c>
       <c r="F4">
-        <v>1.629111103098339</v>
+        <v>0.8251478917408406</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1776384203028982</v>
+        <v>0.1555215585149767</v>
       </c>
       <c r="K4">
-        <v>0.60284854178866</v>
+        <v>0.8569602978875253</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9012753088558156</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.044206152397237</v>
+        <v>1.978669904422702</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.083416618079582</v>
+        <v>0.7805558717228678</v>
       </c>
       <c r="C5">
-        <v>0.4889666702777902</v>
+        <v>0.1162166770070883</v>
       </c>
       <c r="D5">
-        <v>0.05959539662720204</v>
+        <v>0.1575499896107289</v>
       </c>
       <c r="E5">
-        <v>0.1052525959257125</v>
+        <v>0.1347809011608554</v>
       </c>
       <c r="F5">
-        <v>1.594012444314856</v>
+        <v>0.8188902271491116</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1719844670261566</v>
+        <v>0.1508497785513399</v>
       </c>
       <c r="K5">
-        <v>0.5775906650034415</v>
+        <v>0.8216637021785118</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9152740329998998</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.023081455339806</v>
+        <v>1.976184337423106</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.068505227022001</v>
+        <v>0.7749343656283827</v>
       </c>
       <c r="C6">
-        <v>0.485338942685047</v>
+        <v>0.1155376786527853</v>
       </c>
       <c r="D6">
-        <v>0.05923860717297202</v>
+        <v>0.1565391499358242</v>
       </c>
       <c r="E6">
-        <v>0.1046637638050747</v>
+        <v>0.1340095214281334</v>
       </c>
       <c r="F6">
-        <v>1.588239043890297</v>
+        <v>0.8178745600563744</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1710506426326788</v>
+        <v>0.1500772231764316</v>
       </c>
       <c r="K6">
-        <v>0.5734068429206403</v>
+        <v>0.8158039041748566</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9176212321997816</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.019611037193712</v>
+        <v>1.975832910604325</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.17222795404814</v>
+        <v>0.8139682522451892</v>
       </c>
       <c r="C7">
-        <v>0.5105668443172249</v>
+        <v>0.120249429747787</v>
       </c>
       <c r="D7">
-        <v>0.06171922888209735</v>
+        <v>0.1635640995477416</v>
       </c>
       <c r="E7">
-        <v>0.1087652324823054</v>
+        <v>0.1393762302612913</v>
       </c>
       <c r="F7">
-        <v>1.628634029574314</v>
+        <v>0.8250619168698634</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.17756182733158</v>
+        <v>0.1554583365785689</v>
       </c>
       <c r="K7">
-        <v>0.6025072021714166</v>
+        <v>0.8564841884590635</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9014625671536116</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.04391871914352</v>
+        <v>1.978632244227072</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.636104225260624</v>
+        <v>0.9866714965608026</v>
       </c>
       <c r="C8">
-        <v>0.6232398961713272</v>
+        <v>0.1410196165742121</v>
       </c>
       <c r="D8">
-        <v>0.07277765088114307</v>
+        <v>0.19479724051061</v>
       </c>
       <c r="E8">
-        <v>0.1272511978029378</v>
+        <v>0.1633905083032801</v>
       </c>
       <c r="F8">
-        <v>1.815439422772414</v>
+        <v>0.8603169873876411</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2070888235857637</v>
+        <v>0.1796990066052189</v>
       </c>
       <c r="K8">
-        <v>0.7326022024494137</v>
+        <v>1.036262361661613</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8335747444829273</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.15701474069806</v>
+        <v>2.000222864909688</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.57534918924091</v>
+        <v>1.327992766554644</v>
       </c>
       <c r="C9">
-        <v>0.8508850834722921</v>
+        <v>0.1817670181010698</v>
       </c>
       <c r="D9">
-        <v>0.09497533799287083</v>
+        <v>0.2570967366306718</v>
       </c>
       <c r="E9">
-        <v>0.1652402621149278</v>
+        <v>0.2119154946071831</v>
       </c>
       <c r="F9">
-        <v>2.21890746403497</v>
+        <v>0.9435689380328682</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2685572278074062</v>
+        <v>0.2293386044144796</v>
       </c>
       <c r="K9">
-        <v>0.9958517684747648</v>
+        <v>1.390755927767941</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7139429613708543</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.40410263296792</v>
+        <v>2.079135729119713</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.291441801557312</v>
+        <v>1.581443022480187</v>
       </c>
       <c r="C10">
-        <v>1.024223212763843</v>
+        <v>0.2118167821760579</v>
       </c>
       <c r="D10">
-        <v>0.1117153069655217</v>
+        <v>0.3037296244750536</v>
       </c>
       <c r="E10">
-        <v>0.194584158487821</v>
+        <v>0.2486870854293386</v>
       </c>
       <c r="F10">
-        <v>2.54486337353228</v>
+        <v>1.014762729955052</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3166572259964511</v>
+        <v>0.2674248240768407</v>
       </c>
       <c r="K10">
-        <v>1.196478449544088</v>
+        <v>1.653441874945401</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6355737736952136</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>1.605736220413419</v>
+        <v>2.162832795971696</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.624898288701218</v>
+        <v>1.697583528096686</v>
       </c>
       <c r="C11">
-        <v>1.104915234958696</v>
+        <v>0.2255366547954338</v>
       </c>
       <c r="D11">
-        <v>0.1194546584984266</v>
+        <v>0.3251840696842976</v>
       </c>
       <c r="E11">
-        <v>0.2083397923319055</v>
+        <v>0.2657178110894947</v>
       </c>
       <c r="F11">
-        <v>2.70131534062395</v>
+        <v>1.049668639280355</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.339372603371487</v>
+        <v>0.2851821491396436</v>
       </c>
       <c r="K11">
-        <v>1.289891947272068</v>
+        <v>1.77368519077919</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6023217395382829</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>1.703019735378604</v>
+        <v>2.207313247676382</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.752470120627834</v>
+        <v>1.741707117747865</v>
       </c>
       <c r="C12">
-        <v>1.135784788370643</v>
+        <v>0.2307414341096887</v>
       </c>
       <c r="D12">
-        <v>0.1224060564437366</v>
+        <v>0.3333476173836374</v>
       </c>
       <c r="E12">
-        <v>0.2136162319099881</v>
+        <v>0.2722157532543221</v>
       </c>
       <c r="F12">
-        <v>2.761902143175035</v>
+        <v>1.063279502591385</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3481129156347293</v>
+        <v>0.2919756221818801</v>
       </c>
       <c r="K12">
-        <v>1.32562869729928</v>
+        <v>1.819348008183482</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.5901070702533957</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>1.740771571472351</v>
+        <v>2.225152012118855</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.72493416223989</v>
+        <v>1.732197549345557</v>
       </c>
       <c r="C13">
-        <v>1.129121703756709</v>
+        <v>0.2296200390292285</v>
       </c>
       <c r="D13">
-        <v>0.1217694523299713</v>
+        <v>0.3315876307376016</v>
       </c>
       <c r="E13">
-        <v>0.2124767005014547</v>
+        <v>0.2708140490533282</v>
       </c>
       <c r="F13">
-        <v>2.74879113705822</v>
+        <v>1.060330182221065</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3462240540294772</v>
+        <v>0.290509331743479</v>
       </c>
       <c r="K13">
-        <v>1.317915063034164</v>
+        <v>1.809507584516922</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5927203863889829</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>1.732598490745644</v>
+        <v>2.221264627814037</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.635366482895449</v>
+        <v>1.701210588817105</v>
       </c>
       <c r="C14">
-        <v>1.107448312752126</v>
+        <v>0.2259646544746801</v>
       </c>
       <c r="D14">
-        <v>0.1196970401840503</v>
+        <v>0.3258548763270568</v>
       </c>
       <c r="E14">
-        <v>0.2087724805362683</v>
+        <v>0.2662513920624292</v>
       </c>
       <c r="F14">
-        <v>2.706271932827462</v>
+        <v>1.050780359193809</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3400887843101827</v>
+        <v>0.2857396237011045</v>
       </c>
       <c r="K14">
-        <v>1.292824419289545</v>
+        <v>1.777439174994726</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6013090733383777</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>1.706106611008352</v>
+        <v>2.208760469996264</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.580678959571003</v>
+        <v>1.682249584430849</v>
       </c>
       <c r="C15">
-        <v>1.094215078946206</v>
+        <v>0.2237269122633876</v>
       </c>
       <c r="D15">
-        <v>0.1184304091963497</v>
+        <v>0.3223486472057573</v>
       </c>
       <c r="E15">
-        <v>0.2065126113785709</v>
+        <v>0.263463145534125</v>
       </c>
       <c r="F15">
-        <v>2.680407735267011</v>
+        <v>1.044982907913038</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3363493785753775</v>
+        <v>0.2828272657977209</v>
       </c>
       <c r="K15">
-        <v>1.277504686341274</v>
+        <v>1.757813867254725</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6066200351283584</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>1.690002029150918</v>
+        <v>2.201233173716929</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.269820473078255</v>
+        <v>1.573871826315894</v>
       </c>
       <c r="C16">
-        <v>1.018990841988</v>
+        <v>0.2109213444554427</v>
       </c>
       <c r="D16">
-        <v>0.1112122548416323</v>
+        <v>0.3023327569085694</v>
       </c>
       <c r="E16">
-        <v>0.193694125844722</v>
+        <v>0.2475806218433831</v>
       </c>
       <c r="F16">
-        <v>2.534817110619059</v>
+        <v>1.012534796965255</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3151910439066654</v>
+        <v>0.2662736212623997</v>
       </c>
       <c r="K16">
-        <v>1.19042135998076</v>
+        <v>1.645600546023815</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6377978031287341</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>1.59949975001507</v>
+        <v>2.160060984160424</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.081220738450099</v>
+        <v>1.507617213567443</v>
       </c>
       <c r="C17">
-        <v>0.9733471503140265</v>
+        <v>0.2030798501332072</v>
       </c>
       <c r="D17">
-        <v>0.1068178701677596</v>
+        <v>0.2901185070627577</v>
       </c>
       <c r="E17">
-        <v>0.1859406721236212</v>
+        <v>0.2379184183889436</v>
       </c>
       <c r="F17">
-        <v>2.44770754245755</v>
+        <v>0.9932951957028706</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.3024372766016796</v>
+        <v>0.2562339383945442</v>
       </c>
       <c r="K17">
-        <v>1.1375851486861</v>
+        <v>1.576967518568267</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6575603879360727</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>1.545479733575604</v>
+        <v>2.136494736017369</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.973455393077529</v>
+        <v>1.469587390352274</v>
       </c>
       <c r="C18">
-        <v>0.9472640079309258</v>
+        <v>0.1985742042453893</v>
       </c>
       <c r="D18">
-        <v>0.104301845490852</v>
+        <v>0.2831155759637625</v>
       </c>
       <c r="E18">
-        <v>0.181518798140317</v>
+        <v>0.2323891752671017</v>
       </c>
       <c r="F18">
-        <v>2.39836260794543</v>
+        <v>0.9824642796222207</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.295178956049071</v>
+        <v>0.2504995585120611</v>
       </c>
       <c r="K18">
-        <v>1.107393664605297</v>
+        <v>1.537560431769862</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6691509109573914</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1.514924578202738</v>
+        <v>2.123538304707097</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.937084761551205</v>
+        <v>1.456723906062138</v>
       </c>
       <c r="C19">
-        <v>0.9384604989483591</v>
+        <v>0.1970493927777426</v>
       </c>
       <c r="D19">
-        <v>0.1034518592803551</v>
+        <v>0.2807482141743378</v>
       </c>
       <c r="E19">
-        <v>0.180027848157458</v>
+        <v>0.2305217603601051</v>
       </c>
       <c r="F19">
-        <v>2.381780729500377</v>
+        <v>0.9788366210632518</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2927341639674239</v>
+        <v>0.2485646899587266</v>
       </c>
       <c r="K19">
-        <v>1.097203892637523</v>
+        <v>1.524229046602102</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6731127487110768</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>1.504664475797526</v>
+        <v>2.119252071524443</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.101222474878682</v>
+        <v>1.514661893896147</v>
       </c>
       <c r="C20">
-        <v>0.97818808163413</v>
+        <v>0.2039141021162862</v>
       </c>
       <c r="D20">
-        <v>0.1072844494864853</v>
+        <v>0.2914163862776604</v>
       </c>
       <c r="E20">
-        <v>0.1867620764359685</v>
+        <v>0.2389440214501661</v>
       </c>
       <c r="F20">
-        <v>2.4569008931106</v>
+        <v>0.995318729075592</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3037868088888018</v>
+        <v>0.2572984717053117</v>
       </c>
       <c r="K20">
-        <v>1.143188736584491</v>
+        <v>1.584266345647507</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6554332635811946</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>1.551176104086139</v>
+        <v>2.138940969843674</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.661637780399019</v>
+        <v>1.710308124386557</v>
       </c>
       <c r="C21">
-        <v>1.113805392740403</v>
+        <v>0.2270380573273769</v>
       </c>
       <c r="D21">
-        <v>0.1203051727591742</v>
+        <v>0.3275376228329634</v>
       </c>
       <c r="E21">
-        <v>0.2098585914511872</v>
+        <v>0.2675901879844957</v>
       </c>
       <c r="F21">
-        <v>2.718723006045934</v>
+        <v>1.05357446035211</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3418869441609473</v>
+        <v>0.2871386664720461</v>
       </c>
       <c r="K21">
-        <v>1.300183829151678</v>
+        <v>1.786854751518206</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5987758546250888</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>1.713862175421895</v>
+        <v>2.21240562479062</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.035580342983167</v>
+        <v>1.83902344423683</v>
       </c>
       <c r="C22">
-        <v>1.204292218614853</v>
+        <v>0.2422066025577436</v>
       </c>
       <c r="D22">
-        <v>0.12893702317389</v>
+        <v>0.3513758874657924</v>
       </c>
       <c r="E22">
-        <v>0.2253518083452164</v>
+        <v>0.286599112365856</v>
       </c>
       <c r="F22">
-        <v>2.897753022288128</v>
+        <v>1.093953041990872</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3676051465887156</v>
+        <v>0.3070477595760792</v>
       </c>
       <c r="K22">
-        <v>1.404935819184331</v>
+        <v>1.920023045380276</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5639633335364351</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1.825569914855592</v>
+        <v>2.266256923243958</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.835227914138329</v>
+        <v>1.770240144890096</v>
       </c>
       <c r="C23">
-        <v>1.155810368435652</v>
+        <v>0.2341050047628386</v>
       </c>
       <c r="D23">
-        <v>0.1243178566739118</v>
+        <v>0.3386302234723217</v>
       </c>
       <c r="E23">
-        <v>0.2170430841359092</v>
+        <v>0.2764256140818162</v>
       </c>
       <c r="F23">
-        <v>2.801416575941829</v>
+        <v>1.072180643168537</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3537973153582357</v>
+        <v>0.2963821956470269</v>
       </c>
       <c r="K23">
-        <v>1.348811534941632</v>
+        <v>1.848870885964772</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5823288808632157</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1.765415621812011</v>
+        <v>2.236955434078993</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.092177638433213</v>
+        <v>1.511476806088126</v>
       </c>
       <c r="C24">
-        <v>0.975999007974707</v>
+        <v>0.2035369290640006</v>
       </c>
       <c r="D24">
-        <v>0.1070734768975967</v>
+        <v>0.2908295556105145</v>
       </c>
       <c r="E24">
-        <v>0.1863906090434568</v>
+        <v>0.2384802666861603</v>
       </c>
       <c r="F24">
-        <v>2.452742300637453</v>
+        <v>0.9944031749318896</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.303176456247229</v>
+        <v>0.256817079709748</v>
       </c>
       <c r="K24">
-        <v>1.14065478303327</v>
+        <v>1.580966388852659</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6563942263858138</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.548599220763236</v>
+        <v>2.137833188724699</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.317316908149223</v>
+        <v>1.235267104927402</v>
       </c>
       <c r="C25">
-        <v>0.7883905412317631</v>
+        <v>0.1707318703152225</v>
       </c>
       <c r="D25">
-        <v>0.08890389350169414</v>
+        <v>0.2401086438606512</v>
       </c>
       <c r="E25">
-        <v>0.1547409240329713</v>
+        <v>0.1986103204470808</v>
       </c>
       <c r="F25">
-        <v>2.105115694265322</v>
+        <v>0.9193946964039128</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2514725664479158</v>
+        <v>0.2156515048998102</v>
       </c>
       <c r="K25">
-        <v>0.9235463531292254</v>
+        <v>1.294543439089693</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7447364949576141</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.334097498427042</v>
+        <v>2.053532881714119</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_49/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.033607886293652</v>
+        <v>0.442379229604569</v>
       </c>
       <c r="C2">
-        <v>0.1466449438430431</v>
+        <v>0.04231202262495515</v>
       </c>
       <c r="D2">
-        <v>0.2033233391431395</v>
+        <v>0.1787246208189259</v>
       </c>
       <c r="E2">
-        <v>0.1699855747977637</v>
+        <v>0.1640199045123722</v>
       </c>
       <c r="F2">
-        <v>0.87077519303363</v>
+        <v>1.578264622813109</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1863977882620489</v>
+        <v>0.1910775826059847</v>
       </c>
       <c r="K2">
-        <v>1.085068775827608</v>
+        <v>0.4076749453714115</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.008428893667457</v>
+        <v>3.925773960152185</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8976550917182919</v>
+        <v>0.4028768011925195</v>
       </c>
       <c r="C3">
-        <v>0.1303288688674229</v>
+        <v>0.03704680571253505</v>
       </c>
       <c r="D3">
-        <v>0.1786697398324861</v>
+        <v>0.1726011840280535</v>
       </c>
       <c r="E3">
-        <v>0.1509606887579977</v>
+        <v>0.1597661717657886</v>
       </c>
       <c r="F3">
-        <v>0.8414780711401022</v>
+        <v>1.582086128929788</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1671207354746329</v>
+        <v>0.1871676593352944</v>
       </c>
       <c r="K3">
-        <v>0.943639646971917</v>
+        <v>0.3655392386036453</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.987315424430818</v>
+        <v>3.949525278875086</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8144252000656138</v>
+        <v>0.3787075689788253</v>
       </c>
       <c r="C4">
-        <v>0.1203045468584776</v>
+        <v>0.03379939988572289</v>
       </c>
       <c r="D4">
-        <v>0.1636464183268771</v>
+        <v>0.1689111441244933</v>
       </c>
       <c r="E4">
-        <v>0.1394391983443306</v>
+        <v>0.1572353702693761</v>
       </c>
       <c r="F4">
-        <v>0.8251478917408406</v>
+        <v>1.585280313141325</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1555215585149767</v>
+        <v>0.1848750716523568</v>
       </c>
       <c r="K4">
-        <v>0.8569602978875253</v>
+        <v>0.3396974074448451</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.978669904422702</v>
+        <v>3.966251166974146</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7805558717228678</v>
+        <v>0.3688804300091135</v>
       </c>
       <c r="C5">
-        <v>0.1162166770070883</v>
+        <v>0.03247247587924562</v>
       </c>
       <c r="D5">
-        <v>0.1575499896107289</v>
+        <v>0.1674250754432052</v>
       </c>
       <c r="E5">
-        <v>0.1347809011608554</v>
+        <v>0.1562244653391787</v>
       </c>
       <c r="F5">
-        <v>0.8188902271491116</v>
+        <v>1.586795165354467</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1508497785513399</v>
+        <v>0.1839680236687826</v>
       </c>
       <c r="K5">
-        <v>0.8216637021785118</v>
+        <v>0.3291746831736475</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.976184337423106</v>
+        <v>3.973605674330926</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7749343656283827</v>
+        <v>0.3672499869534818</v>
       </c>
       <c r="C6">
-        <v>0.1155376786527853</v>
+        <v>0.03225192722190684</v>
       </c>
       <c r="D6">
-        <v>0.1565391499358242</v>
+        <v>0.1671793841980929</v>
       </c>
       <c r="E6">
-        <v>0.1340095214281334</v>
+        <v>0.156057839890817</v>
       </c>
       <c r="F6">
-        <v>0.8178745600563744</v>
+        <v>1.587059582515494</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1500772231764316</v>
+        <v>0.1838190522281806</v>
       </c>
       <c r="K6">
-        <v>0.8158039041748566</v>
+        <v>0.3274278948555889</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.975832910604325</v>
+        <v>3.974859408084583</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8139682522451892</v>
+        <v>0.378574946872277</v>
       </c>
       <c r="C7">
-        <v>0.120249429747787</v>
+        <v>0.03378151891641323</v>
       </c>
       <c r="D7">
-        <v>0.1635640995477416</v>
+        <v>0.1688910308655096</v>
       </c>
       <c r="E7">
-        <v>0.1393762302612913</v>
+        <v>0.1572216541202529</v>
       </c>
       <c r="F7">
-        <v>0.8250619168698634</v>
+        <v>1.585299879721838</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1554583365785689</v>
+        <v>0.1848627287371016</v>
       </c>
       <c r="K7">
-        <v>0.8564841884590635</v>
+        <v>0.3395554610230818</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.978632244227072</v>
+        <v>3.966348172010854</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9866714965608026</v>
+        <v>0.4287413743881245</v>
       </c>
       <c r="C8">
-        <v>0.1410196165742121</v>
+        <v>0.0404996382224283</v>
       </c>
       <c r="D8">
-        <v>0.19479724051061</v>
+        <v>0.176598839898972</v>
       </c>
       <c r="E8">
-        <v>0.1633905083032801</v>
+        <v>0.1625364309417421</v>
       </c>
       <c r="F8">
-        <v>0.8603169873876411</v>
+        <v>1.579406332969015</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1796990066052189</v>
+        <v>0.1897070061629549</v>
       </c>
       <c r="K8">
-        <v>1.036262361661613</v>
+        <v>0.3931407266033773</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.000222864909688</v>
+        <v>3.933518635278148</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.327992766554644</v>
+        <v>0.527776739465537</v>
       </c>
       <c r="C9">
-        <v>0.1817670181010698</v>
+        <v>0.05355572955383536</v>
       </c>
       <c r="D9">
-        <v>0.2570967366306718</v>
+        <v>0.1922636791973389</v>
       </c>
       <c r="E9">
-        <v>0.2119154946071831</v>
+        <v>0.1736000934153026</v>
       </c>
       <c r="F9">
-        <v>0.9435689380328682</v>
+        <v>1.574576491666519</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2293386044144796</v>
+        <v>0.2000647204691148</v>
       </c>
       <c r="K9">
-        <v>1.390755927767941</v>
+        <v>0.4984368148981275</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.079135729119713</v>
+        <v>3.886149601908272</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.581443022480187</v>
+        <v>0.6009224178268653</v>
       </c>
       <c r="C10">
-        <v>0.2118167821760579</v>
+        <v>0.06307327762640114</v>
       </c>
       <c r="D10">
-        <v>0.3037296244750536</v>
+        <v>0.2041041074349579</v>
       </c>
       <c r="E10">
-        <v>0.2486870854293386</v>
+        <v>0.1821188158426992</v>
       </c>
       <c r="F10">
-        <v>1.014762729955052</v>
+        <v>1.57513259589642</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2674248240768407</v>
+        <v>0.2081990403758738</v>
       </c>
       <c r="K10">
-        <v>1.653441874945401</v>
+        <v>0.5759104939651252</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.162832795971696</v>
+        <v>3.861734003133762</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.697583528096686</v>
+        <v>0.6342785473484582</v>
       </c>
       <c r="C11">
-        <v>0.2255366547954338</v>
+        <v>0.0673863040179441</v>
       </c>
       <c r="D11">
-        <v>0.3251840696842976</v>
+        <v>0.2095618957747831</v>
       </c>
       <c r="E11">
-        <v>0.2657178110894947</v>
+        <v>0.1860788460549543</v>
       </c>
       <c r="F11">
-        <v>1.049668639280355</v>
+        <v>1.576277746034719</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2851821491396436</v>
+        <v>0.2120138081149179</v>
       </c>
       <c r="K11">
-        <v>1.77368519077919</v>
+        <v>0.6111762820214324</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.207313247676382</v>
+        <v>3.852885921632236</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.741707117747865</v>
+        <v>0.6469209721413449</v>
       </c>
       <c r="C12">
-        <v>0.2307414341096887</v>
+        <v>0.06901709096939612</v>
       </c>
       <c r="D12">
-        <v>0.3333476173836374</v>
+        <v>0.2116388137227858</v>
       </c>
       <c r="E12">
-        <v>0.2722157532543221</v>
+        <v>0.187590571865762</v>
       </c>
       <c r="F12">
-        <v>1.063279502591385</v>
+        <v>1.576839710641721</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2919756221818801</v>
+        <v>0.2134748211790196</v>
       </c>
       <c r="K12">
-        <v>1.819348008183482</v>
+        <v>0.6245333086606308</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.225152012118855</v>
+        <v>3.849860459283747</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.732197549345557</v>
+        <v>0.6441977116143107</v>
       </c>
       <c r="C13">
-        <v>0.2296200390292285</v>
+        <v>0.06866598264291213</v>
       </c>
       <c r="D13">
-        <v>0.3315876307376016</v>
+        <v>0.2111910616671366</v>
       </c>
       <c r="E13">
-        <v>0.2708140490533282</v>
+        <v>0.1872644551427243</v>
       </c>
       <c r="F13">
-        <v>1.060330182221065</v>
+        <v>1.576712973964177</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.290509331743479</v>
+        <v>0.2131594347291923</v>
       </c>
       <c r="K13">
-        <v>1.809507584516922</v>
+        <v>0.6216565264168139</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.221264627814037</v>
+        <v>3.850497582169567</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.701210588817105</v>
+        <v>0.6353184264416427</v>
       </c>
       <c r="C14">
-        <v>0.2259646544746801</v>
+        <v>0.06752051966317651</v>
       </c>
       <c r="D14">
-        <v>0.3258548763270568</v>
+        <v>0.2097325618455272</v>
       </c>
       <c r="E14">
-        <v>0.2662513920624292</v>
+        <v>0.1862029734567372</v>
       </c>
       <c r="F14">
-        <v>1.050780359193809</v>
+        <v>1.576321407300867</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2857396237011045</v>
+        <v>0.2121336770538278</v>
       </c>
       <c r="K14">
-        <v>1.777439174994726</v>
+        <v>0.6122751232828421</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.208760469996264</v>
+        <v>3.852630497445745</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.682249584430849</v>
+        <v>0.6298810470244405</v>
       </c>
       <c r="C15">
-        <v>0.2237269122633876</v>
+        <v>0.06681856739201919</v>
       </c>
       <c r="D15">
-        <v>0.3223486472057573</v>
+        <v>0.2088405099514148</v>
       </c>
       <c r="E15">
-        <v>0.263463145534125</v>
+        <v>0.1855543658939212</v>
       </c>
       <c r="F15">
-        <v>1.044982907913038</v>
+        <v>1.576098273409158</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2828272657977209</v>
+        <v>0.2115075119383505</v>
       </c>
       <c r="K15">
-        <v>1.757813867254725</v>
+        <v>0.6065290683346518</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.201233173716929</v>
+        <v>3.853979318458101</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.573871826315894</v>
+        <v>0.5987441126297881</v>
       </c>
       <c r="C16">
-        <v>0.2109213444554427</v>
+        <v>0.06279107106995241</v>
       </c>
       <c r="D16">
-        <v>0.3023327569085694</v>
+        <v>0.2037488576571604</v>
       </c>
       <c r="E16">
-        <v>0.2475806218433831</v>
+        <v>0.1818617211947284</v>
       </c>
       <c r="F16">
-        <v>1.012534796965255</v>
+        <v>1.575075712846612</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2662736212623997</v>
+        <v>0.2079520379316335</v>
       </c>
       <c r="K16">
-        <v>1.645600546023815</v>
+        <v>0.5736061943566142</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.160060984160424</v>
+        <v>3.862357723876926</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.507617213567443</v>
+        <v>0.5796631481686347</v>
       </c>
       <c r="C17">
-        <v>0.2030798501332072</v>
+        <v>0.06031603404329644</v>
       </c>
       <c r="D17">
-        <v>0.2901185070627577</v>
+        <v>0.2006435314558814</v>
       </c>
       <c r="E17">
-        <v>0.2379184183889436</v>
+        <v>0.1796180931908751</v>
       </c>
       <c r="F17">
-        <v>0.9932951957028706</v>
+        <v>1.574676932284333</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2562339383945442</v>
+        <v>0.2058001690943314</v>
       </c>
       <c r="K17">
-        <v>1.576967518568267</v>
+        <v>0.5534144331505217</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.136494736017369</v>
+        <v>3.868076335990111</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.469587390352274</v>
+        <v>0.5686960153505538</v>
       </c>
       <c r="C18">
-        <v>0.1985742042453893</v>
+        <v>0.0588909049383517</v>
       </c>
       <c r="D18">
-        <v>0.2831155759637625</v>
+        <v>0.198864168283464</v>
       </c>
       <c r="E18">
-        <v>0.2323891752671017</v>
+        <v>0.1783356043504725</v>
       </c>
       <c r="F18">
-        <v>0.9824642796222207</v>
+        <v>1.574531538433803</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2504995585120611</v>
+        <v>0.2045732419241375</v>
       </c>
       <c r="K18">
-        <v>1.537560431769862</v>
+        <v>0.5418028320913777</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.123538304707097</v>
+        <v>3.87157811079058</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.456723906062138</v>
+        <v>0.5649840785095819</v>
       </c>
       <c r="C19">
-        <v>0.1970493927777426</v>
+        <v>0.05840811644661414</v>
       </c>
       <c r="D19">
-        <v>0.2807482141743378</v>
+        <v>0.1982628672247273</v>
       </c>
       <c r="E19">
-        <v>0.2305217603601051</v>
+        <v>0.1779027488643266</v>
       </c>
       <c r="F19">
-        <v>0.9788366210632518</v>
+        <v>1.574496732381206</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2485646899587266</v>
+        <v>0.2041596756995432</v>
       </c>
       <c r="K19">
-        <v>1.524229046602102</v>
+        <v>0.5378717342827883</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.119252071524443</v>
+        <v>3.872800252813221</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.514661893896147</v>
+        <v>0.5816935532510854</v>
       </c>
       <c r="C20">
-        <v>0.2039141021162862</v>
+        <v>0.06057966731411568</v>
       </c>
       <c r="D20">
-        <v>0.2914163862776604</v>
+        <v>0.2009734021542187</v>
       </c>
       <c r="E20">
-        <v>0.2389440214501661</v>
+        <v>0.1798561049879837</v>
       </c>
       <c r="F20">
-        <v>0.995318729075592</v>
+        <v>1.57471069194068</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2572984717053117</v>
+        <v>0.2060281245396567</v>
       </c>
       <c r="K20">
-        <v>1.584266345647507</v>
+        <v>0.5555636609009866</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.138940969843674</v>
+        <v>3.867445576395994</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.710308124386557</v>
+        <v>0.637926188849093</v>
       </c>
       <c r="C21">
-        <v>0.2270380573273769</v>
+        <v>0.06785703738947291</v>
       </c>
       <c r="D21">
-        <v>0.3275376228329634</v>
+        <v>0.2101606834280147</v>
       </c>
       <c r="E21">
-        <v>0.2675901879844957</v>
+        <v>0.1865144270462693</v>
       </c>
       <c r="F21">
-        <v>1.05357446035211</v>
+        <v>1.576432937108876</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2871386664720461</v>
+        <v>0.2124345207685678</v>
       </c>
       <c r="K21">
-        <v>1.786854751518206</v>
+        <v>0.6150306020812195</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.21240562479062</v>
+        <v>3.851995182507636</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.83902344423683</v>
+        <v>0.6747423798062471</v>
       </c>
       <c r="C22">
-        <v>0.2422066025577436</v>
+        <v>0.07259882822219765</v>
       </c>
       <c r="D22">
-        <v>0.3513758874657924</v>
+        <v>0.2162243408204176</v>
       </c>
       <c r="E22">
-        <v>0.286599112365856</v>
+        <v>0.1909368123763997</v>
       </c>
       <c r="F22">
-        <v>1.093953041990872</v>
+        <v>1.578306489725179</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3070477595760792</v>
+        <v>0.2167173100589821</v>
       </c>
       <c r="K22">
-        <v>1.920023045380276</v>
+        <v>0.6539107793159644</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.266256923243958</v>
+        <v>3.843792616769093</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.770240144890096</v>
+        <v>0.6550871370456548</v>
       </c>
       <c r="C23">
-        <v>0.2341050047628386</v>
+        <v>0.0700693889727404</v>
       </c>
       <c r="D23">
-        <v>0.3386302234723217</v>
+        <v>0.2129826695103532</v>
       </c>
       <c r="E23">
-        <v>0.2764256140818162</v>
+        <v>0.1885700412287505</v>
       </c>
       <c r="F23">
-        <v>1.072180643168537</v>
+        <v>1.577238091639529</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2963821956470269</v>
+        <v>0.2144227391767686</v>
       </c>
       <c r="K23">
-        <v>1.848870885964772</v>
+        <v>0.6331585183457094</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.236955434078993</v>
+        <v>3.847996968988951</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.511476806088126</v>
+        <v>0.5807755984494065</v>
       </c>
       <c r="C24">
-        <v>0.2035369290640006</v>
+        <v>0.06046048555123207</v>
       </c>
       <c r="D24">
-        <v>0.2908295556105145</v>
+        <v>0.2008242491321255</v>
       </c>
       <c r="E24">
-        <v>0.2384802666861603</v>
+        <v>0.1797484767929944</v>
       </c>
       <c r="F24">
-        <v>0.9944031749318896</v>
+        <v>1.574695167948462</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.256817079709748</v>
+        <v>0.2059250340771257</v>
       </c>
       <c r="K24">
-        <v>1.580966388852659</v>
+        <v>0.5545920046106403</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.137833188724699</v>
+        <v>3.867730076011213</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.235267104927402</v>
+        <v>0.5009162959379978</v>
       </c>
       <c r="C25">
-        <v>0.1707318703152225</v>
+        <v>0.05003664357617765</v>
       </c>
       <c r="D25">
-        <v>0.2401086438606512</v>
+        <v>0.1879674467498802</v>
       </c>
       <c r="E25">
-        <v>0.1986103204470808</v>
+        <v>0.1705384921364654</v>
       </c>
       <c r="F25">
-        <v>0.9193946964039128</v>
+        <v>1.575162526404611</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2156515048998102</v>
+        <v>0.1971706747313675</v>
       </c>
       <c r="K25">
-        <v>1.294543439089693</v>
+        <v>0.4699303097603718</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.053532881714119</v>
+        <v>3.897141435657403</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_49/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.442379229604569</v>
+        <v>1.033607886293765</v>
       </c>
       <c r="C2">
-        <v>0.04231202262495515</v>
+        <v>0.1466449438430431</v>
       </c>
       <c r="D2">
-        <v>0.1787246208189259</v>
+        <v>0.2033233391433669</v>
       </c>
       <c r="E2">
-        <v>0.1640199045123722</v>
+        <v>0.1699855747977708</v>
       </c>
       <c r="F2">
-        <v>1.578264622813109</v>
+        <v>0.8707751930336514</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1910775826059847</v>
+        <v>0.1863977882620205</v>
       </c>
       <c r="K2">
-        <v>0.4076749453714115</v>
+        <v>1.085068775827637</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.925773960152185</v>
+        <v>2.008428893667457</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4028768011925195</v>
+        <v>0.8976550917185762</v>
       </c>
       <c r="C3">
-        <v>0.03704680571253505</v>
+        <v>0.1303288688675792</v>
       </c>
       <c r="D3">
-        <v>0.1726011840280535</v>
+        <v>0.1786697398325998</v>
       </c>
       <c r="E3">
-        <v>0.1597661717657886</v>
+        <v>0.1509606887579977</v>
       </c>
       <c r="F3">
-        <v>1.582086128929788</v>
+        <v>0.841478071140088</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1871676593352944</v>
+        <v>0.1671207354746329</v>
       </c>
       <c r="K3">
-        <v>0.3655392386036453</v>
+        <v>0.9436396469718318</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.949525278875086</v>
+        <v>1.987315424430818</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3787075689788253</v>
+        <v>0.8144252000655854</v>
       </c>
       <c r="C4">
-        <v>0.03379939988572289</v>
+        <v>0.1203045468589465</v>
       </c>
       <c r="D4">
-        <v>0.1689111441244933</v>
+        <v>0.1636464183267634</v>
       </c>
       <c r="E4">
-        <v>0.1572353702693761</v>
+        <v>0.1394391983443342</v>
       </c>
       <c r="F4">
-        <v>1.585280313141325</v>
+        <v>0.8251478917408548</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1848750716523568</v>
+        <v>0.1555215585149838</v>
       </c>
       <c r="K4">
-        <v>0.3396974074448451</v>
+        <v>0.8569602978874968</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.966251166974146</v>
+        <v>1.978669904422674</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3688804300091135</v>
+        <v>0.7805558717229815</v>
       </c>
       <c r="C5">
-        <v>0.03247247587924562</v>
+        <v>0.1162166770073156</v>
       </c>
       <c r="D5">
-        <v>0.1674250754432052</v>
+        <v>0.1575499896106152</v>
       </c>
       <c r="E5">
-        <v>0.1562244653391787</v>
+        <v>0.1347809011608412</v>
       </c>
       <c r="F5">
-        <v>1.586795165354467</v>
+        <v>0.8188902271491116</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1839680236687826</v>
+        <v>0.1508497785514535</v>
       </c>
       <c r="K5">
-        <v>0.3291746831736475</v>
+        <v>0.8216637021784834</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.973605674330926</v>
+        <v>1.976184337423092</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3672499869534818</v>
+        <v>0.7749343656283827</v>
       </c>
       <c r="C6">
-        <v>0.03225192722190684</v>
+        <v>0.1155376786529416</v>
       </c>
       <c r="D6">
-        <v>0.1671793841980929</v>
+        <v>0.1565391499358668</v>
       </c>
       <c r="E6">
-        <v>0.156057839890817</v>
+        <v>0.1340095214281298</v>
       </c>
       <c r="F6">
-        <v>1.587059582515494</v>
+        <v>0.8178745600563744</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1838190522281806</v>
+        <v>0.1500772231763321</v>
       </c>
       <c r="K6">
-        <v>0.3274278948555889</v>
+        <v>0.8158039041746292</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.974859408084583</v>
+        <v>1.975832910604225</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.378574946872277</v>
+        <v>0.8139682522451039</v>
       </c>
       <c r="C7">
-        <v>0.03378151891641323</v>
+        <v>0.1202494297479433</v>
       </c>
       <c r="D7">
-        <v>0.1688910308655096</v>
+        <v>0.1635640995479264</v>
       </c>
       <c r="E7">
-        <v>0.1572216541202529</v>
+        <v>0.1393762302612807</v>
       </c>
       <c r="F7">
-        <v>1.585299879721838</v>
+        <v>0.8250619168698705</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1848627287371016</v>
+        <v>0.1554583365786257</v>
       </c>
       <c r="K7">
-        <v>0.3395554610230818</v>
+        <v>0.8564841884590635</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.966348172010854</v>
+        <v>1.978632244227086</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4287413743881245</v>
+        <v>0.9866714965609731</v>
       </c>
       <c r="C8">
-        <v>0.0404996382224283</v>
+        <v>0.1410196165747095</v>
       </c>
       <c r="D8">
-        <v>0.176598839898972</v>
+        <v>0.1947972405107947</v>
       </c>
       <c r="E8">
-        <v>0.1625364309417421</v>
+        <v>0.1633905083032658</v>
       </c>
       <c r="F8">
-        <v>1.579406332969015</v>
+        <v>0.860316987387634</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1897070061629549</v>
+        <v>0.1796990066051194</v>
       </c>
       <c r="K8">
-        <v>0.3931407266033773</v>
+        <v>1.036262361661642</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.933518635278148</v>
+        <v>2.000222864909603</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.527776739465537</v>
+        <v>1.327992766554644</v>
       </c>
       <c r="C9">
-        <v>0.05355572955383536</v>
+        <v>0.181767018101354</v>
       </c>
       <c r="D9">
-        <v>0.1922636791973389</v>
+        <v>0.2570967366305581</v>
       </c>
       <c r="E9">
-        <v>0.1736000934153026</v>
+        <v>0.2119154946071689</v>
       </c>
       <c r="F9">
-        <v>1.574576491666519</v>
+        <v>0.9435689380328824</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2000647204691148</v>
+        <v>0.2293386044144796</v>
       </c>
       <c r="K9">
-        <v>0.4984368148981275</v>
+        <v>1.390755927767884</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.886149601908272</v>
+        <v>2.079135729119599</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6009224178268653</v>
+        <v>1.581443022480073</v>
       </c>
       <c r="C10">
-        <v>0.06307327762640114</v>
+        <v>0.2118167821759727</v>
       </c>
       <c r="D10">
-        <v>0.2041041074349579</v>
+        <v>0.3037296244750962</v>
       </c>
       <c r="E10">
-        <v>0.1821188158426992</v>
+        <v>0.2486870854293528</v>
       </c>
       <c r="F10">
-        <v>1.57513259589642</v>
+        <v>1.014762729955081</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2081990403758738</v>
+        <v>0.2674248240768833</v>
       </c>
       <c r="K10">
-        <v>0.5759104939651252</v>
+        <v>1.653441874945372</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.861734003133762</v>
+        <v>2.162832795971639</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6342785473484582</v>
+        <v>1.697583528096686</v>
       </c>
       <c r="C11">
-        <v>0.0673863040179441</v>
+        <v>0.2255366547954054</v>
       </c>
       <c r="D11">
-        <v>0.2095618957747831</v>
+        <v>0.3251840696843971</v>
       </c>
       <c r="E11">
-        <v>0.1860788460549543</v>
+        <v>0.2657178110894733</v>
       </c>
       <c r="F11">
-        <v>1.576277746034719</v>
+        <v>1.04966863928037</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2120138081149179</v>
+        <v>0.2851821491396578</v>
       </c>
       <c r="K11">
-        <v>0.6111762820214324</v>
+        <v>1.773685190779048</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.852885921632236</v>
+        <v>2.207313247676439</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6469209721413449</v>
+        <v>1.741707117747865</v>
       </c>
       <c r="C12">
-        <v>0.06901709096939612</v>
+        <v>0.2307414341096745</v>
       </c>
       <c r="D12">
-        <v>0.2116388137227858</v>
+        <v>0.3333476173836658</v>
       </c>
       <c r="E12">
-        <v>0.187590571865762</v>
+        <v>0.2722157532543008</v>
       </c>
       <c r="F12">
-        <v>1.576839710641721</v>
+        <v>1.063279502591371</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2134748211790196</v>
+        <v>0.2919756221819227</v>
       </c>
       <c r="K12">
-        <v>0.6245333086606308</v>
+        <v>1.819348008183368</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.849860459283747</v>
+        <v>2.225152012118826</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6441977116143107</v>
+        <v>1.732197549345642</v>
       </c>
       <c r="C13">
-        <v>0.06866598264291213</v>
+        <v>0.2296200390291432</v>
       </c>
       <c r="D13">
-        <v>0.2111910616671366</v>
+        <v>0.3315876307375447</v>
       </c>
       <c r="E13">
-        <v>0.1872644551427243</v>
+        <v>0.2708140490533211</v>
       </c>
       <c r="F13">
-        <v>1.576712973964177</v>
+        <v>1.060330182221051</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2131594347291923</v>
+        <v>0.2905093317435075</v>
       </c>
       <c r="K13">
-        <v>0.6216565264168139</v>
+        <v>1.809507584516837</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.850497582169567</v>
+        <v>2.221264627814065</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6353184264416427</v>
+        <v>1.701210588817133</v>
       </c>
       <c r="C14">
-        <v>0.06752051966317651</v>
+        <v>0.2259646544741827</v>
       </c>
       <c r="D14">
-        <v>0.2097325618455272</v>
+        <v>0.3258548763269999</v>
       </c>
       <c r="E14">
-        <v>0.1862029734567372</v>
+        <v>0.2662513920624505</v>
       </c>
       <c r="F14">
-        <v>1.576321407300867</v>
+        <v>1.050780359193809</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2121336770538278</v>
+        <v>0.2857396237011471</v>
       </c>
       <c r="K14">
-        <v>0.6122751232828421</v>
+        <v>1.777439174994782</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.852630497445745</v>
+        <v>2.208760469996264</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6298810470244405</v>
+        <v>1.682249584430707</v>
       </c>
       <c r="C15">
-        <v>0.06681856739201919</v>
+        <v>0.223726912263146</v>
       </c>
       <c r="D15">
-        <v>0.2088405099514148</v>
+        <v>0.3223486472056862</v>
       </c>
       <c r="E15">
-        <v>0.1855543658939212</v>
+        <v>0.2634631455341463</v>
       </c>
       <c r="F15">
-        <v>1.576098273409158</v>
+        <v>1.044982907913038</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2115075119383505</v>
+        <v>0.2828272657977209</v>
       </c>
       <c r="K15">
-        <v>0.6065290683346518</v>
+        <v>1.757813867254811</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.853979318458101</v>
+        <v>2.201233173716957</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5987441126297881</v>
+        <v>1.573871826315894</v>
       </c>
       <c r="C16">
-        <v>0.06279107106995241</v>
+        <v>0.2109213444553149</v>
       </c>
       <c r="D16">
-        <v>0.2037488576571604</v>
+        <v>0.3023327569087542</v>
       </c>
       <c r="E16">
-        <v>0.1818617211947284</v>
+        <v>0.2475806218433831</v>
       </c>
       <c r="F16">
-        <v>1.575075712846612</v>
+        <v>1.012534796965269</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2079520379316335</v>
+        <v>0.2662736212623287</v>
       </c>
       <c r="K16">
-        <v>0.5736061943566142</v>
+        <v>1.645600546023672</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.862357723876926</v>
+        <v>2.160060984160424</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5796631481686347</v>
+        <v>1.507617213567414</v>
       </c>
       <c r="C17">
-        <v>0.06031603404329644</v>
+        <v>0.2030798501335198</v>
       </c>
       <c r="D17">
-        <v>0.2006435314558814</v>
+        <v>0.2901185070628429</v>
       </c>
       <c r="E17">
-        <v>0.1796180931908751</v>
+        <v>0.2379184183889009</v>
       </c>
       <c r="F17">
-        <v>1.574676932284333</v>
+        <v>0.9932951957028706</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2058001690943314</v>
+        <v>0.25623393839453</v>
       </c>
       <c r="K17">
-        <v>0.5534144331505217</v>
+        <v>1.576967518568267</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.868076335990111</v>
+        <v>2.13649473601734</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5686960153505538</v>
+        <v>1.469587390352274</v>
       </c>
       <c r="C18">
-        <v>0.0588909049383517</v>
+        <v>0.1985742042453893</v>
       </c>
       <c r="D18">
-        <v>0.198864168283464</v>
+        <v>0.2831155759637767</v>
       </c>
       <c r="E18">
-        <v>0.1783356043504725</v>
+        <v>0.2323891752671017</v>
       </c>
       <c r="F18">
-        <v>1.574531538433803</v>
+        <v>0.9824642796222207</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2045732419241375</v>
+        <v>0.2504995585120469</v>
       </c>
       <c r="K18">
-        <v>0.5418028320913777</v>
+        <v>1.537560431769805</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.87157811079058</v>
+        <v>2.123538304707154</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5649840785095819</v>
+        <v>1.456723906062109</v>
       </c>
       <c r="C19">
-        <v>0.05840811644661414</v>
+        <v>0.1970493927779842</v>
       </c>
       <c r="D19">
-        <v>0.1982628672247273</v>
+        <v>0.2807482141744657</v>
       </c>
       <c r="E19">
-        <v>0.1779027488643266</v>
+        <v>0.230521760360098</v>
       </c>
       <c r="F19">
-        <v>1.574496732381206</v>
+        <v>0.9788366210632518</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2041596756995432</v>
+        <v>0.2485646899588403</v>
       </c>
       <c r="K19">
-        <v>0.5378717342827883</v>
+        <v>1.524229046602215</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.872800252813221</v>
+        <v>2.119252071524443</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5816935532510854</v>
+        <v>1.514661893896147</v>
       </c>
       <c r="C20">
-        <v>0.06057966731411568</v>
+        <v>0.2039141021160873</v>
       </c>
       <c r="D20">
-        <v>0.2009734021542187</v>
+        <v>0.2914163862777741</v>
       </c>
       <c r="E20">
-        <v>0.1798561049879837</v>
+        <v>0.2389440214501874</v>
       </c>
       <c r="F20">
-        <v>1.57471069194068</v>
+        <v>0.9953187290755636</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2060281245396567</v>
+        <v>0.2572984717053544</v>
       </c>
       <c r="K20">
-        <v>0.5555636609009866</v>
+        <v>1.584266345647507</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.867445576395994</v>
+        <v>2.138940969843588</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.637926188849093</v>
+        <v>1.710308124386586</v>
       </c>
       <c r="C21">
-        <v>0.06785703738947291</v>
+        <v>0.2270380573276043</v>
       </c>
       <c r="D21">
-        <v>0.2101606834280147</v>
+        <v>0.3275376228328781</v>
       </c>
       <c r="E21">
-        <v>0.1865144270462693</v>
+        <v>0.2675901879844815</v>
       </c>
       <c r="F21">
-        <v>1.576432937108876</v>
+        <v>1.05357446035211</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2124345207685678</v>
+        <v>0.2871386664720603</v>
       </c>
       <c r="K21">
-        <v>0.6150306020812195</v>
+        <v>1.786854751518149</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.851995182507636</v>
+        <v>2.21240562479062</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6747423798062471</v>
+        <v>1.839023444236631</v>
       </c>
       <c r="C22">
-        <v>0.07259882822219765</v>
+        <v>0.2422066025572747</v>
       </c>
       <c r="D22">
-        <v>0.2162243408204176</v>
+        <v>0.3513758874657924</v>
       </c>
       <c r="E22">
-        <v>0.1909368123763997</v>
+        <v>0.2865991123658134</v>
       </c>
       <c r="F22">
-        <v>1.578306489725179</v>
+        <v>1.093953041990858</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2167173100589821</v>
+        <v>0.3070477595761076</v>
       </c>
       <c r="K22">
-        <v>0.6539107793159644</v>
+        <v>1.920023045380276</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.843792616769093</v>
+        <v>2.26625692324393</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6550871370456548</v>
+        <v>1.770240144890067</v>
       </c>
       <c r="C23">
-        <v>0.0700693889727404</v>
+        <v>0.2341050047631086</v>
       </c>
       <c r="D23">
-        <v>0.2129826695103532</v>
+        <v>0.3386302234721512</v>
       </c>
       <c r="E23">
-        <v>0.1885700412287505</v>
+        <v>0.2764256140818162</v>
       </c>
       <c r="F23">
-        <v>1.577238091639529</v>
+        <v>1.072180643168537</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2144227391767686</v>
+        <v>0.2963821956471122</v>
       </c>
       <c r="K23">
-        <v>0.6331585183457094</v>
+        <v>1.848870885964772</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.847996968988951</v>
+        <v>2.236955434078908</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5807755984494065</v>
+        <v>1.511476806087984</v>
       </c>
       <c r="C24">
-        <v>0.06046048555123207</v>
+        <v>0.2035369290640006</v>
       </c>
       <c r="D24">
-        <v>0.2008242491321255</v>
+        <v>0.2908295556106708</v>
       </c>
       <c r="E24">
-        <v>0.1797484767929944</v>
+        <v>0.2384802666861958</v>
       </c>
       <c r="F24">
-        <v>1.574695167948462</v>
+        <v>0.9944031749319038</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2059250340771257</v>
+        <v>0.2568170797098759</v>
       </c>
       <c r="K24">
-        <v>0.5545920046106403</v>
+        <v>1.580966388852659</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.867730076011213</v>
+        <v>2.137833188724727</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5009162959379978</v>
+        <v>1.235267104927402</v>
       </c>
       <c r="C25">
-        <v>0.05003664357617765</v>
+        <v>0.1707318703152225</v>
       </c>
       <c r="D25">
-        <v>0.1879674467498802</v>
+        <v>0.2401086438605802</v>
       </c>
       <c r="E25">
-        <v>0.1705384921364654</v>
+        <v>0.1986103204470737</v>
       </c>
       <c r="F25">
-        <v>1.575162526404611</v>
+        <v>0.9193946964039128</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1971706747313675</v>
+        <v>0.2156515048997534</v>
       </c>
       <c r="K25">
-        <v>0.4699303097603718</v>
+        <v>1.294543439089722</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.897141435657403</v>
+        <v>2.053532881714148</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_49/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.033607886293765</v>
+        <v>0.9236080755657667</v>
       </c>
       <c r="C2">
-        <v>0.1466449438430431</v>
+        <v>0.1854874671287519</v>
       </c>
       <c r="D2">
-        <v>0.2033233391433669</v>
+        <v>0.2280716327379935</v>
       </c>
       <c r="E2">
-        <v>0.1699855747977708</v>
+        <v>0.191096568716091</v>
       </c>
       <c r="F2">
-        <v>0.8707751930336514</v>
+        <v>0.8171576670389911</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.0004958177646872119</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.001125858562174731</v>
       </c>
       <c r="J2">
-        <v>0.1863977882620205</v>
+        <v>0.02672462365074526</v>
       </c>
       <c r="K2">
-        <v>1.085068775827637</v>
+        <v>0.3445601831743375</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2114686903838603</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.053669808287424</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.008428893667457</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.854937416283315</v>
+      </c>
+      <c r="Q2">
+        <v>1.785694372212191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8976550917185762</v>
+        <v>0.8041246173378624</v>
       </c>
       <c r="C3">
-        <v>0.1303288688675792</v>
+        <v>0.1620476563765294</v>
       </c>
       <c r="D3">
-        <v>0.1786697398325998</v>
+        <v>0.2013876180924257</v>
       </c>
       <c r="E3">
-        <v>0.1509606887579977</v>
+        <v>0.169561688190683</v>
       </c>
       <c r="F3">
-        <v>0.841478071140088</v>
+        <v>0.7787992892442688</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
+        <v>0.001276979741297257</v>
+      </c>
+      <c r="I3">
+        <v>0.001801835623849612</v>
+      </c>
+      <c r="J3">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0.1671207354746329</v>
-      </c>
       <c r="K3">
-        <v>0.9436396469718318</v>
+        <v>0.3436428739971653</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1882754562836979</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.9174256046413802</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.987315424430818</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.8825830795320773</v>
+      </c>
+      <c r="Q3">
+        <v>1.739358672679046</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8144252000655854</v>
+        <v>0.7304020271122909</v>
       </c>
       <c r="C4">
-        <v>0.1203045468589465</v>
+        <v>0.1478266172436236</v>
       </c>
       <c r="D4">
-        <v>0.1636464183267634</v>
+        <v>0.1850596663086037</v>
       </c>
       <c r="E4">
-        <v>0.1394391983443342</v>
+        <v>0.1563437571818795</v>
       </c>
       <c r="F4">
-        <v>0.8251478917408548</v>
+        <v>0.7556863405463048</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
+        <v>0.001964657022759164</v>
+      </c>
+      <c r="I4">
+        <v>0.002387127486332741</v>
+      </c>
+      <c r="J4">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0.1555215585149838</v>
-      </c>
       <c r="K4">
-        <v>0.8569602978874968</v>
+        <v>0.3432711674826727</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1740066686152986</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.833696851892654</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.978669904422674</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.9001445414060019</v>
+      </c>
+      <c r="Q4">
+        <v>1.712155392543551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7805558717229815</v>
+        <v>0.6995828139130822</v>
       </c>
       <c r="C5">
-        <v>0.1162166770073156</v>
+        <v>0.1424600919892072</v>
       </c>
       <c r="D5">
-        <v>0.1575499896106152</v>
+        <v>0.178522804296648</v>
       </c>
       <c r="E5">
-        <v>0.1347809011608412</v>
+        <v>0.1509809468690371</v>
       </c>
       <c r="F5">
-        <v>0.8188902271491116</v>
+        <v>0.74589596577799</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0.002296291104153192</v>
+      </c>
+      <c r="I5">
+        <v>0.002740519769050209</v>
+      </c>
+      <c r="J5">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0.1508497785514535</v>
-      </c>
       <c r="K5">
-        <v>0.8216637021784834</v>
+        <v>0.3428533309516233</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1681612645883632</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.7995234189759231</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.976184337423092</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.907416806127026</v>
+      </c>
+      <c r="Q5">
+        <v>1.700062467415052</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7749343656283827</v>
+        <v>0.6936215817022742</v>
       </c>
       <c r="C6">
-        <v>0.1155376786529416</v>
+        <v>0.1420486888860069</v>
       </c>
       <c r="D6">
-        <v>0.1565391499358668</v>
+        <v>0.1775660633791603</v>
       </c>
       <c r="E6">
-        <v>0.1340095214281298</v>
+        <v>0.1501196509069196</v>
       </c>
       <c r="F6">
-        <v>0.8178745600563744</v>
+        <v>0.7436937000058705</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
+        <v>0.002355922971995383</v>
+      </c>
+      <c r="I6">
+        <v>0.002899236936430682</v>
+      </c>
+      <c r="J6">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0.1500772231763321</v>
-      </c>
       <c r="K6">
-        <v>0.8158039041746292</v>
+        <v>0.3424044480876951</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1671630335824759</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.7938116427794171</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.975832910604225</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.9086000942215779</v>
+      </c>
+      <c r="Q6">
+        <v>1.696473515512579</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8139682522451039</v>
+        <v>0.7276896721508592</v>
       </c>
       <c r="C7">
-        <v>0.1202494297479433</v>
+        <v>0.1490599721155519</v>
       </c>
       <c r="D7">
-        <v>0.1635640995479264</v>
+        <v>0.1853216781600082</v>
       </c>
       <c r="E7">
-        <v>0.1393762302612807</v>
+        <v>0.1563515785867295</v>
       </c>
       <c r="F7">
-        <v>0.8250619168698705</v>
+        <v>0.7539626664649006</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
+        <v>0.001972812265104817</v>
+      </c>
+      <c r="I7">
+        <v>0.00264258693399011</v>
+      </c>
+      <c r="J7">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0.1554583365786257</v>
-      </c>
       <c r="K7">
-        <v>0.8564841884590635</v>
+        <v>0.3422222913112094</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1738540317090482</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.833137596556611</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.978632244227086</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.9001647244654141</v>
+      </c>
+      <c r="Q7">
+        <v>1.70762761433393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9866714965609731</v>
+        <v>0.8794130964749343</v>
       </c>
       <c r="C8">
-        <v>0.1410196165747095</v>
+        <v>0.1791090108163473</v>
       </c>
       <c r="D8">
-        <v>0.1947972405107947</v>
+        <v>0.2193247169380044</v>
       </c>
       <c r="E8">
-        <v>0.1633905083032658</v>
+        <v>0.1837766666866258</v>
       </c>
       <c r="F8">
-        <v>0.860316987387634</v>
+        <v>0.8017340561243671</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
+        <v>0.0007235801841927181</v>
+      </c>
+      <c r="I8">
+        <v>0.00162333986886054</v>
+      </c>
+      <c r="J8">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0.1796990066051194</v>
-      </c>
       <c r="K8">
-        <v>1.036262361661642</v>
+        <v>0.3428300695623498</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2033787684946802</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1.006569964383374</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.000222864909603</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.864299945612375</v>
+      </c>
+      <c r="Q8">
+        <v>1.763693989018918</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.327992766554644</v>
+        <v>1.178342030703163</v>
       </c>
       <c r="C9">
-        <v>0.181767018101354</v>
+        <v>0.2371981153543601</v>
       </c>
       <c r="D9">
-        <v>0.2570967366305581</v>
+        <v>0.2859006930918468</v>
       </c>
       <c r="E9">
-        <v>0.2119154946071689</v>
+        <v>0.2375170721851774</v>
       </c>
       <c r="F9">
-        <v>0.9435689380328824</v>
+        <v>0.9020161794850594</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
+        <v>2.527202117108551E-05</v>
+      </c>
+      <c r="I9">
+        <v>0.0006797139112517669</v>
+      </c>
+      <c r="J9">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0.2293386044144796</v>
-      </c>
       <c r="K9">
-        <v>1.390755927767884</v>
+        <v>0.347470986749375</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2612636955865781</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.346542976809275</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.079135729119599</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.798829880224897</v>
+      </c>
+      <c r="Q9">
+        <v>1.891956698867375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.581443022480073</v>
+        <v>1.391101499577132</v>
       </c>
       <c r="C10">
-        <v>0.2118167821759727</v>
+        <v>0.2793165209434108</v>
       </c>
       <c r="D10">
-        <v>0.3037296244750962</v>
+        <v>0.3277923796648992</v>
       </c>
       <c r="E10">
-        <v>0.2486870854293528</v>
+        <v>0.2666818463364464</v>
       </c>
       <c r="F10">
-        <v>1.014762729955081</v>
+        <v>0.964440824936645</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
+        <v>0.0008412420905026252</v>
+      </c>
+      <c r="I10">
+        <v>0.001095377350341487</v>
+      </c>
+      <c r="J10">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0.2674248240768833</v>
-      </c>
       <c r="K10">
-        <v>1.653441874945372</v>
+        <v>0.3483790626713699</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2892706506747231</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.58952708342926</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.162832795971639</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.7545848398876416</v>
+      </c>
+      <c r="Q10">
+        <v>1.970111535662966</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.697583528096686</v>
+        <v>1.447175609918816</v>
       </c>
       <c r="C11">
-        <v>0.2255366547954054</v>
+        <v>0.2801396175521802</v>
       </c>
       <c r="D11">
-        <v>0.3251840696843971</v>
+        <v>0.2834970126321394</v>
       </c>
       <c r="E11">
-        <v>0.2657178110894733</v>
+        <v>0.1962181236172924</v>
       </c>
       <c r="F11">
-        <v>1.04966863928037</v>
+        <v>0.8792144133567916</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
+        <v>0.01932654536005174</v>
+      </c>
+      <c r="I11">
+        <v>0.001780032974220802</v>
+      </c>
+      <c r="J11">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0.2851821491396578</v>
-      </c>
       <c r="K11">
-        <v>1.773685190779048</v>
+        <v>0.3214551741440914</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1907366661715812</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.638769667605942</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.207313247676439</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.7443250540418198</v>
+      </c>
+      <c r="Q11">
+        <v>1.81902008212495</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.741707117747865</v>
+        <v>1.452729385368372</v>
       </c>
       <c r="C12">
-        <v>0.2307414341096745</v>
+        <v>0.2697795562963847</v>
       </c>
       <c r="D12">
-        <v>0.3333476173836658</v>
+        <v>0.2398406048043995</v>
       </c>
       <c r="E12">
-        <v>0.2722157532543008</v>
+        <v>0.1405530177120831</v>
       </c>
       <c r="F12">
-        <v>1.063279502591371</v>
+        <v>0.7992800528995971</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
+        <v>0.05784987129703723</v>
+      </c>
+      <c r="I12">
+        <v>0.001805291095528183</v>
+      </c>
+      <c r="J12">
         <v>0.0267246236506935</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0.2919756221819227</v>
-      </c>
       <c r="K12">
-        <v>1.819348008183368</v>
+        <v>0.3007640043839572</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1217369635478889</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.628213342308072</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.225152012118826</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.7483422962679818</v>
+      </c>
+      <c r="Q12">
+        <v>1.684691272368752</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.732197549345642</v>
+        <v>1.416024865823402</v>
       </c>
       <c r="C13">
-        <v>0.2296200390291432</v>
+        <v>0.2523669383551663</v>
       </c>
       <c r="D13">
-        <v>0.3315876307375447</v>
+        <v>0.1949668924914931</v>
       </c>
       <c r="E13">
-        <v>0.2708140490533211</v>
+        <v>0.09340450759427554</v>
       </c>
       <c r="F13">
-        <v>1.060330182221051</v>
+        <v>0.7164523159044052</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
+        <v>0.1133927989918391</v>
+      </c>
+      <c r="I13">
+        <v>0.001666326074827751</v>
+      </c>
+      <c r="J13">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0.2905093317435075</v>
-      </c>
       <c r="K13">
-        <v>1.809507584516837</v>
+        <v>0.2819875160479199</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.07148122211862429</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.570945910286525</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.221264627814065</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.7628597663451337</v>
+      </c>
+      <c r="Q13">
+        <v>1.548556137035945</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.701210588817133</v>
+        <v>1.370632190779446</v>
       </c>
       <c r="C14">
-        <v>0.2259646544741827</v>
+        <v>0.2374912079607014</v>
       </c>
       <c r="D14">
-        <v>0.3258548763269999</v>
+        <v>0.1638071849446021</v>
       </c>
       <c r="E14">
-        <v>0.2662513920624505</v>
+        <v>0.06588401014006706</v>
       </c>
       <c r="F14">
-        <v>1.050780359193809</v>
+        <v>0.6576648005009389</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
+        <v>0.1625943522016371</v>
+      </c>
+      <c r="I14">
+        <v>0.001591276837177524</v>
+      </c>
+      <c r="J14">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0.2857396237011471</v>
-      </c>
       <c r="K14">
-        <v>1.777439174994782</v>
+        <v>0.2696424959765764</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.04765596565588659</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.509946119638471</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.208760469996264</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.7780842633847129</v>
+      </c>
+      <c r="Q14">
+        <v>1.452598983990441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.682249584430707</v>
+        <v>1.349774447818646</v>
       </c>
       <c r="C15">
-        <v>0.223726912263146</v>
+        <v>0.2328765348964481</v>
       </c>
       <c r="D15">
-        <v>0.3223486472056862</v>
+        <v>0.1557244814974865</v>
       </c>
       <c r="E15">
-        <v>0.2634631455341463</v>
+        <v>0.05976406339861029</v>
       </c>
       <c r="F15">
-        <v>1.044982907913038</v>
+        <v>0.6420173006377539</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
+        <v>0.1750482158428071</v>
+      </c>
+      <c r="I15">
+        <v>0.00165893115037985</v>
+      </c>
+      <c r="J15">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0.2828272657977209</v>
-      </c>
       <c r="K15">
-        <v>1.757813867254811</v>
+        <v>0.2666753715073753</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.04329381764532414</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.485313110755612</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.201233173716957</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.7837139490975318</v>
+      </c>
+      <c r="Q15">
+        <v>1.427275173800723</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.573871826315894</v>
+        <v>1.265075664211793</v>
       </c>
       <c r="C16">
-        <v>0.2109213444553149</v>
+        <v>0.2194288572635372</v>
       </c>
       <c r="D16">
-        <v>0.3023327569087542</v>
+        <v>0.1482847034720436</v>
       </c>
       <c r="E16">
-        <v>0.2475806218433831</v>
+        <v>0.05827588149896457</v>
       </c>
       <c r="F16">
-        <v>1.012534796965269</v>
+        <v>0.6323181507695992</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
+        <v>0.162074697371807</v>
+      </c>
+      <c r="I16">
+        <v>0.001601026118770221</v>
+      </c>
+      <c r="J16">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0.2662736212623287</v>
-      </c>
       <c r="K16">
-        <v>1.645600546023672</v>
+        <v>0.2694592780020102</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.04302544952747311</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.393604792795799</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.160060984160424</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.7976400537228443</v>
+      </c>
+      <c r="Q16">
+        <v>1.419611020729576</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.507617213567414</v>
+        <v>1.224132731641419</v>
       </c>
       <c r="C17">
-        <v>0.2030798501335198</v>
+        <v>0.2170307667238234</v>
       </c>
       <c r="D17">
-        <v>0.2901185070628429</v>
+        <v>0.1586465516708415</v>
       </c>
       <c r="E17">
-        <v>0.2379184183889009</v>
+        <v>0.0706075956615102</v>
       </c>
       <c r="F17">
-        <v>0.9932951957028706</v>
+        <v>0.655626235229505</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0.1241932354081996</v>
+      </c>
+      <c r="I17">
+        <v>0.001631276669834314</v>
+      </c>
+      <c r="J17">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0.25623393839453</v>
-      </c>
       <c r="K17">
-        <v>1.576967518568267</v>
+        <v>0.2780797137723532</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.05342267151834434</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.355616967109398</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.13649473601734</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.8004004838161443</v>
+      </c>
+      <c r="Q17">
+        <v>1.464225955600384</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.469587390352274</v>
+        <v>1.217887187672943</v>
       </c>
       <c r="C18">
-        <v>0.1985742042453893</v>
+        <v>0.2228659729361624</v>
       </c>
       <c r="D18">
-        <v>0.2831155759637767</v>
+        <v>0.1870212250565828</v>
       </c>
       <c r="E18">
-        <v>0.2323891752671017</v>
+        <v>0.1013192106281764</v>
       </c>
       <c r="F18">
-        <v>0.9824642796222207</v>
+        <v>0.7127266769568763</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0.07134503595781183</v>
+      </c>
+      <c r="I18">
+        <v>0.001410290146274917</v>
+      </c>
+      <c r="J18">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0.2504995585120469</v>
-      </c>
       <c r="K18">
-        <v>1.537560431769805</v>
+        <v>0.2937627184224887</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.08410510223936996</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.359271988714198</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.123538304707154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.7949946786381581</v>
+      </c>
+      <c r="Q18">
+        <v>1.563828108371894</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.456723906062109</v>
+        <v>1.235491788411593</v>
       </c>
       <c r="C19">
-        <v>0.1970493927779842</v>
+        <v>0.2374883505634671</v>
       </c>
       <c r="D19">
-        <v>0.2807482141744657</v>
+        <v>0.2312251069342466</v>
       </c>
       <c r="E19">
-        <v>0.230521760360098</v>
+        <v>0.1525751835361788</v>
       </c>
       <c r="F19">
-        <v>0.9788366210632518</v>
+        <v>0.7934722330687478</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0.02616394046889781</v>
+      </c>
+      <c r="I19">
+        <v>0.001530401761373312</v>
+      </c>
+      <c r="J19">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0.2485646899588403</v>
-      </c>
       <c r="K19">
-        <v>1.524229046602215</v>
+        <v>0.3131074029984831</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1438247445716883</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.395936055253571</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.119252071524443</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.7864354720728919</v>
+      </c>
+      <c r="Q19">
+        <v>1.697541339305019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.514661893896147</v>
+        <v>1.327798887003013</v>
       </c>
       <c r="C20">
-        <v>0.2039141021160873</v>
+        <v>0.272260573478178</v>
       </c>
       <c r="D20">
-        <v>0.2914163862777741</v>
+        <v>0.317556653076835</v>
       </c>
       <c r="E20">
-        <v>0.2389440214501874</v>
+        <v>0.2588303429892775</v>
       </c>
       <c r="F20">
-        <v>0.9953187290755636</v>
+        <v>0.9423989936254316</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
+        <v>0.0005213648800870274</v>
+      </c>
+      <c r="I20">
+        <v>0.001683108246975706</v>
+      </c>
+      <c r="J20">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0.2572984717053544</v>
-      </c>
       <c r="K20">
-        <v>1.584266345647507</v>
+        <v>0.3447640420735993</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2810797017566244</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.525078472879414</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.138940969843588</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.7662034411486296</v>
+      </c>
+      <c r="Q20">
+        <v>1.934776135974914</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.710308124386586</v>
+        <v>1.498563481915824</v>
       </c>
       <c r="C21">
-        <v>0.2270380573276043</v>
+        <v>0.3078402498672403</v>
       </c>
       <c r="D21">
-        <v>0.3275376228328781</v>
+        <v>0.3614572724352882</v>
       </c>
       <c r="E21">
-        <v>0.2675901879844815</v>
+        <v>0.2975107205118093</v>
       </c>
       <c r="F21">
-        <v>1.05357446035211</v>
+        <v>1.012673214507643</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
+        <v>0.00141921268084011</v>
+      </c>
+      <c r="I21">
+        <v>0.002197914714618499</v>
+      </c>
+      <c r="J21">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0.2871386664720603</v>
-      </c>
       <c r="K21">
-        <v>1.786854751518149</v>
+        <v>0.3512872400389497</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.3250941242405929</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.722552620747308</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.21240562479062</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.7323743228310295</v>
+      </c>
+      <c r="Q21">
+        <v>2.033211666565336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.839023444236631</v>
+        <v>1.610917499843197</v>
       </c>
       <c r="C22">
-        <v>0.2422066025572747</v>
+        <v>0.3284112943160551</v>
       </c>
       <c r="D22">
-        <v>0.3513758874657924</v>
+        <v>0.3859135693868723</v>
       </c>
       <c r="E22">
-        <v>0.2865991123658134</v>
+        <v>0.3173883931601935</v>
       </c>
       <c r="F22">
-        <v>1.093953041990858</v>
+        <v>1.054589252861291</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
+        <v>0.002325650629852571</v>
+      </c>
+      <c r="I22">
+        <v>0.002446161772350131</v>
+      </c>
+      <c r="J22">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0.3070477595761076</v>
-      </c>
       <c r="K22">
-        <v>1.920023045380276</v>
+        <v>0.3555391272517205</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3466129793414439</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.848407550507289</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.26625692324393</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.711126492189349</v>
+      </c>
+      <c r="Q22">
+        <v>2.093947848562095</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.770240144890067</v>
+        <v>1.553776069571825</v>
       </c>
       <c r="C23">
-        <v>0.2341050047631086</v>
+        <v>0.3158091286373121</v>
       </c>
       <c r="D23">
-        <v>0.3386302234721512</v>
+        <v>0.3724257159706781</v>
       </c>
       <c r="E23">
-        <v>0.2764256140818162</v>
+        <v>0.3066749685545602</v>
       </c>
       <c r="F23">
-        <v>1.072180643168537</v>
+        <v>1.034022426115484</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
+        <v>0.001819527410492627</v>
+      </c>
+      <c r="I23">
+        <v>0.002001445738363472</v>
+      </c>
+      <c r="J23">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0.2963821956471122</v>
-      </c>
       <c r="K23">
-        <v>1.848870885964772</v>
+        <v>0.3544460096946018</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.3352111274375176</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.781350609215679</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.236955434078908</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.7222997667909965</v>
+      </c>
+      <c r="Q23">
+        <v>2.06644558968901</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.511476806087984</v>
+        <v>1.332571730552502</v>
       </c>
       <c r="C24">
-        <v>0.2035369290640006</v>
+        <v>0.2711374730867817</v>
       </c>
       <c r="D24">
-        <v>0.2908295556106708</v>
+        <v>0.3222429986823556</v>
       </c>
       <c r="E24">
-        <v>0.2384802666861958</v>
+        <v>0.2663813768260184</v>
       </c>
       <c r="F24">
-        <v>0.9944031749319038</v>
+        <v>0.9545196573293993</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
+        <v>0.0004414706977591276</v>
+      </c>
+      <c r="I24">
+        <v>0.001203858162075022</v>
+      </c>
+      <c r="J24">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0.2568170797098759</v>
-      </c>
       <c r="K24">
-        <v>1.580966388852659</v>
+        <v>0.3489323975150072</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2919800332785059</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.527561606840948</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.137833188724727</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.76612721440633</v>
+      </c>
+      <c r="Q24">
+        <v>1.957819079211504</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.235267104927402</v>
+        <v>1.093513147989739</v>
       </c>
       <c r="C25">
-        <v>0.1707318703152225</v>
+        <v>0.2237055063558131</v>
       </c>
       <c r="D25">
-        <v>0.2401086438605802</v>
+        <v>0.2684638823737657</v>
       </c>
       <c r="E25">
-        <v>0.1986103204470737</v>
+        <v>0.2231054346395069</v>
       </c>
       <c r="F25">
-        <v>0.9193946964039128</v>
+        <v>0.8715767044576666</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
+        <v>1.168596129130783E-05</v>
+      </c>
+      <c r="I25">
+        <v>0.001194010395654033</v>
+      </c>
+      <c r="J25">
         <v>0.02672462365057982</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0.2156515048997534</v>
-      </c>
       <c r="K25">
-        <v>1.294543439089722</v>
+        <v>0.3441743995895976</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2454744911873519</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.254368995674952</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.053532881714148</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.8160379548600449</v>
+      </c>
+      <c r="Q25">
+        <v>1.848207417522161</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_49/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_49/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9236080755657667</v>
+        <v>0.8859760737800855</v>
       </c>
       <c r="C2">
-        <v>0.1854874671287519</v>
+        <v>0.2053034389540187</v>
       </c>
       <c r="D2">
-        <v>0.2280716327379935</v>
+        <v>0.2362787772669606</v>
       </c>
       <c r="E2">
-        <v>0.191096568716091</v>
+        <v>0.1941797485922123</v>
       </c>
       <c r="F2">
-        <v>0.8171576670389911</v>
+        <v>0.7784941950971671</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0004958177646872119</v>
+        <v>0.0003509519016597906</v>
       </c>
       <c r="I2">
-        <v>0.001125858562174731</v>
+        <v>0.0008129114521064906</v>
       </c>
       <c r="J2">
-        <v>0.02672462365074526</v>
+        <v>0.07607150459155762</v>
       </c>
       <c r="K2">
-        <v>0.3445601831743375</v>
+        <v>0.3116522623102433</v>
       </c>
       <c r="L2">
-        <v>0.2114686903838603</v>
+        <v>0.1588793512019713</v>
       </c>
       <c r="M2">
-        <v>1.053669808287424</v>
+        <v>0.08236987471340385</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2118495722255247</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.054818388268586</v>
       </c>
       <c r="P2">
-        <v>0.854937416283315</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.785694372212191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.8317601217408885</v>
+      </c>
+      <c r="S2">
+        <v>1.669472023701118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8041246173378624</v>
+        <v>0.7749954850072527</v>
       </c>
       <c r="C3">
-        <v>0.1620476563765294</v>
+        <v>0.1765929134378297</v>
       </c>
       <c r="D3">
-        <v>0.2013876180924257</v>
+        <v>0.2083631255872405</v>
       </c>
       <c r="E3">
-        <v>0.169561688190683</v>
+        <v>0.1724070541620435</v>
       </c>
       <c r="F3">
-        <v>0.7787992892442688</v>
+        <v>0.7447295205221138</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.001276979741297257</v>
+        <v>0.001010267078219718</v>
       </c>
       <c r="I3">
-        <v>0.001801835623849612</v>
+        <v>0.001213384990272459</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142331</v>
       </c>
       <c r="K3">
-        <v>0.3436428739971653</v>
+        <v>0.3128710038647888</v>
       </c>
       <c r="L3">
-        <v>0.1882754562836979</v>
+        <v>0.1632734212537059</v>
       </c>
       <c r="M3">
-        <v>0.9174256046413802</v>
+        <v>0.08029031608091763</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1889903249558103</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.9188257706914271</v>
       </c>
       <c r="P3">
-        <v>0.8825830795320773</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.739358672679046</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.8566306022101102</v>
+      </c>
+      <c r="S3">
+        <v>1.634452227259644</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7304020271122909</v>
+        <v>0.7063300971731792</v>
       </c>
       <c r="C4">
-        <v>0.1478266172436236</v>
+        <v>0.1592539522551135</v>
       </c>
       <c r="D4">
-        <v>0.1850596663086037</v>
+        <v>0.1913010825447969</v>
       </c>
       <c r="E4">
-        <v>0.1563437571818795</v>
+        <v>0.1590469415369675</v>
       </c>
       <c r="F4">
-        <v>0.7556863405463048</v>
+        <v>0.724335530259367</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.001964657022759164</v>
+        <v>0.001608893234141817</v>
       </c>
       <c r="I4">
-        <v>0.002387127486332741</v>
+        <v>0.001604880435596812</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153714</v>
       </c>
       <c r="K4">
-        <v>0.3432711674826727</v>
+        <v>0.313743178470034</v>
       </c>
       <c r="L4">
-        <v>0.1740066686152986</v>
+        <v>0.1660527695278802</v>
       </c>
       <c r="M4">
-        <v>0.833696851892654</v>
+        <v>0.07953135562638636</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1749206558228096</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.835215155329081</v>
       </c>
       <c r="P4">
-        <v>0.9001445414060019</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.712155392543551</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.872524121821689</v>
+      </c>
+      <c r="S4">
+        <v>1.613910352692514</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6995828139130822</v>
+        <v>0.6775460525900883</v>
       </c>
       <c r="C5">
-        <v>0.1424600919892072</v>
+        <v>0.1526686784314535</v>
       </c>
       <c r="D5">
-        <v>0.178522804296648</v>
+        <v>0.1844716580760206</v>
       </c>
       <c r="E5">
-        <v>0.1509809468690371</v>
+        <v>0.1536272772952003</v>
       </c>
       <c r="F5">
-        <v>0.74589596577799</v>
+        <v>0.7156399745271784</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.002296291104153192</v>
+        <v>0.001900675381972472</v>
       </c>
       <c r="I5">
-        <v>0.002740519769050209</v>
+        <v>0.001885136121105191</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153728</v>
       </c>
       <c r="K5">
-        <v>0.3428533309516233</v>
+        <v>0.3138356636163877</v>
       </c>
       <c r="L5">
-        <v>0.1681612645883632</v>
+        <v>0.1670546364626198</v>
       </c>
       <c r="M5">
-        <v>0.7995234189759231</v>
+        <v>0.0792814277277003</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1691551336885624</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8010815320473625</v>
       </c>
       <c r="P5">
-        <v>0.907416806127026</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.700062467415052</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.8791553296944166</v>
+      </c>
+      <c r="S5">
+        <v>1.604508174708457</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6936215817022742</v>
+        <v>0.6719383202467384</v>
       </c>
       <c r="C6">
-        <v>0.1420486888860069</v>
+        <v>0.1520846417601405</v>
       </c>
       <c r="D6">
-        <v>0.1775660633791603</v>
+        <v>0.1834678975004351</v>
       </c>
       <c r="E6">
-        <v>0.1501196509069196</v>
+        <v>0.1527566555354944</v>
       </c>
       <c r="F6">
-        <v>0.7436937000058705</v>
+        <v>0.7136325744234213</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.002355922971995383</v>
+        <v>0.001953315916603637</v>
       </c>
       <c r="I6">
-        <v>0.002899236936430682</v>
+        <v>0.002047260224408376</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142324</v>
       </c>
       <c r="K6">
-        <v>0.3424044480876951</v>
+        <v>0.3134953702649099</v>
       </c>
       <c r="L6">
-        <v>0.1671630335824759</v>
+        <v>0.1670383098532291</v>
       </c>
       <c r="M6">
-        <v>0.7938116427794171</v>
+        <v>0.07916139109550357</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1681702126888567</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7953759300243348</v>
       </c>
       <c r="P6">
-        <v>0.9086000942215779</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.696473515512579</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.880269188229363</v>
+      </c>
+      <c r="S6">
+        <v>1.601419480364925</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7276896721508592</v>
+        <v>0.703696989605902</v>
       </c>
       <c r="C7">
-        <v>0.1490599721155519</v>
+        <v>0.1605511985901984</v>
       </c>
       <c r="D7">
-        <v>0.1853216781600082</v>
+        <v>0.1915626569280278</v>
       </c>
       <c r="E7">
-        <v>0.1563515785867295</v>
+        <v>0.1590541534536278</v>
       </c>
       <c r="F7">
-        <v>0.7539626664649006</v>
+        <v>0.7226684549362403</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.001972812265104817</v>
+        <v>0.001616081310475637</v>
       </c>
       <c r="I7">
-        <v>0.00264258693399011</v>
+        <v>0.00190040187714402</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.0759357156874878</v>
       </c>
       <c r="K7">
-        <v>0.3422222913112094</v>
+        <v>0.3127725426047299</v>
       </c>
       <c r="L7">
-        <v>0.1738540317090482</v>
+        <v>0.1655798105520958</v>
       </c>
       <c r="M7">
-        <v>0.833137596556611</v>
+        <v>0.07927901759252798</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1747694877523287</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8346566734879843</v>
       </c>
       <c r="P7">
-        <v>0.9001647244654141</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.70762761433393</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.8726403385509158</v>
+      </c>
+      <c r="S7">
+        <v>1.609584518821663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8794130964749343</v>
+        <v>0.8448264884204377</v>
       </c>
       <c r="C8">
-        <v>0.1791090108163473</v>
+        <v>0.1972053491124228</v>
       </c>
       <c r="D8">
-        <v>0.2193247169380044</v>
+        <v>0.2271080763464397</v>
       </c>
       <c r="E8">
-        <v>0.1837766666866258</v>
+        <v>0.1867774362022985</v>
       </c>
       <c r="F8">
-        <v>0.8017340561243671</v>
+        <v>0.7647391934059726</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0007235801841927181</v>
+        <v>0.0005392875051002388</v>
       </c>
       <c r="I8">
-        <v>0.00162333986886054</v>
+        <v>0.001272406439984053</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284014</v>
       </c>
       <c r="K8">
-        <v>0.3428300695623498</v>
+        <v>0.3107811899099744</v>
       </c>
       <c r="L8">
-        <v>0.2033787684946802</v>
+        <v>0.1598002177323927</v>
       </c>
       <c r="M8">
-        <v>1.006569964383374</v>
+        <v>0.08116568334633989</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2038768566457918</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.007813939463347</v>
       </c>
       <c r="P8">
-        <v>0.864299945612375</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.763693989018918</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.8403176220550659</v>
+      </c>
+      <c r="S8">
+        <v>1.651684709543161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.178342030703163</v>
+        <v>1.121529074983641</v>
       </c>
       <c r="C9">
-        <v>0.2371981153543601</v>
+        <v>0.2690455486335281</v>
       </c>
       <c r="D9">
-        <v>0.2859006930918468</v>
+        <v>0.2968754802990787</v>
       </c>
       <c r="E9">
-        <v>0.2375170721851774</v>
+        <v>0.2411286771487795</v>
       </c>
       <c r="F9">
-        <v>0.9020161794850594</v>
+        <v>0.8529214265979022</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.527202117108551E-05</v>
+        <v>5.929549801542144E-05</v>
       </c>
       <c r="I9">
-        <v>0.0006797139112517669</v>
+        <v>0.0008199784499289819</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>0.347470986749375</v>
+        <v>0.309624131656296</v>
       </c>
       <c r="L9">
-        <v>0.2612636955865781</v>
+        <v>0.1498751129990197</v>
       </c>
       <c r="M9">
-        <v>1.346542976809275</v>
+        <v>0.08953590463924499</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.2608885458676866</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.346921995978164</v>
       </c>
       <c r="P9">
-        <v>0.798829880224897</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.891956698867375</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0.7818586503393981</v>
+      </c>
+      <c r="S9">
+        <v>1.749866626793164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.391101499577132</v>
+        <v>1.317931894267559</v>
       </c>
       <c r="C10">
-        <v>0.2793165209434108</v>
+        <v>0.3213208814833592</v>
       </c>
       <c r="D10">
-        <v>0.3277923796648992</v>
+        <v>0.3409636681740267</v>
       </c>
       <c r="E10">
-        <v>0.2666818463364464</v>
+        <v>0.2706571891493255</v>
       </c>
       <c r="F10">
-        <v>0.964440824936645</v>
+        <v>0.9068567060713804</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0008412420905026252</v>
+        <v>0.0009465364322642777</v>
       </c>
       <c r="I10">
-        <v>0.001095377350341487</v>
+        <v>0.001470116254484566</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>0.3483790626713699</v>
+        <v>0.3065559803433366</v>
       </c>
       <c r="L10">
-        <v>0.2892706506747231</v>
+        <v>0.141942960067496</v>
       </c>
       <c r="M10">
-        <v>1.58952708342926</v>
+        <v>0.09706155574121667</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.2882752562660755</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.589058750037623</v>
       </c>
       <c r="P10">
-        <v>0.7545848398876416</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.970111535662966</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0.7435274134530268</v>
+      </c>
+      <c r="S10">
+        <v>1.806872230622048</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.447175609918816</v>
+        <v>1.373674807739093</v>
       </c>
       <c r="C11">
-        <v>0.2801396175521802</v>
+        <v>0.3214491407420326</v>
       </c>
       <c r="D11">
-        <v>0.2834970126321394</v>
+        <v>0.2954960037266119</v>
       </c>
       <c r="E11">
-        <v>0.1962181236172924</v>
+        <v>0.1995491051776455</v>
       </c>
       <c r="F11">
-        <v>0.8792144133567916</v>
+        <v>0.8256612790432243</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.01932654536005174</v>
+        <v>0.01941672808129979</v>
       </c>
       <c r="I11">
-        <v>0.001780032974220802</v>
+        <v>0.002292756364417947</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>0.3214551741440914</v>
+        <v>0.2829407029698707</v>
       </c>
       <c r="L11">
-        <v>0.1907366661715812</v>
+        <v>0.1308102761172893</v>
       </c>
       <c r="M11">
-        <v>1.638769667605942</v>
+        <v>0.09161014232367393</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1900022607294218</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.638194793683567</v>
       </c>
       <c r="P11">
-        <v>0.7443250540418198</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.81902008212495</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0.7403993860719673</v>
+      </c>
+      <c r="S11">
+        <v>1.666577996729501</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.452729385368372</v>
+        <v>1.382474172911117</v>
       </c>
       <c r="C12">
-        <v>0.2697795562963847</v>
+        <v>0.3081265871416576</v>
       </c>
       <c r="D12">
-        <v>0.2398406048043995</v>
+        <v>0.2504237200438268</v>
       </c>
       <c r="E12">
-        <v>0.1405530177120831</v>
+        <v>0.1432938225401443</v>
       </c>
       <c r="F12">
-        <v>0.7992800528995971</v>
+        <v>0.7507186783031585</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.05784987129703723</v>
+        <v>0.05792796920000853</v>
       </c>
       <c r="I12">
-        <v>0.001805291095528183</v>
+        <v>0.002321767475550018</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>0.3007640043839572</v>
+        <v>0.2656451180538149</v>
       </c>
       <c r="L12">
-        <v>0.1217369635478889</v>
+        <v>0.1240154626967378</v>
       </c>
       <c r="M12">
-        <v>1.628213342308072</v>
+        <v>0.08584333526939858</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.121333344971184</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.627747377561889</v>
       </c>
       <c r="P12">
-        <v>0.7483422962679818</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.684691272368752</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0.7485617482347777</v>
+      </c>
+      <c r="S12">
+        <v>1.545236335224558</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.416024865823402</v>
+        <v>1.352069200706723</v>
       </c>
       <c r="C13">
-        <v>0.2523669383551663</v>
+        <v>0.2860765064533268</v>
       </c>
       <c r="D13">
-        <v>0.1949668924914931</v>
+        <v>0.2039107262007178</v>
       </c>
       <c r="E13">
-        <v>0.09340450759427554</v>
+        <v>0.09557346027323987</v>
       </c>
       <c r="F13">
-        <v>0.7164523159044052</v>
+        <v>0.6738761887150133</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1133927989918391</v>
+        <v>0.1134568111230436</v>
       </c>
       <c r="I13">
-        <v>0.001666326074827751</v>
+        <v>0.002159233884840184</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.1026584643119293</v>
       </c>
       <c r="K13">
-        <v>0.2819875160479199</v>
+        <v>0.2506235335488221</v>
       </c>
       <c r="L13">
-        <v>0.07148122211862429</v>
+        <v>0.1192179697590205</v>
       </c>
       <c r="M13">
-        <v>1.570945910286525</v>
+        <v>0.0790906548975272</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.07145037248351116</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.570763411202421</v>
       </c>
       <c r="P13">
-        <v>0.7628597663451337</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.548556137035945</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0.765263815061445</v>
+      </c>
+      <c r="S13">
+        <v>1.424629466511746</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.370632190779446</v>
+        <v>1.312440549080264</v>
       </c>
       <c r="C14">
-        <v>0.2374912079607014</v>
+        <v>0.2672941455093678</v>
       </c>
       <c r="D14">
-        <v>0.1638071849446021</v>
+        <v>0.1715386175450249</v>
       </c>
       <c r="E14">
-        <v>0.06588401014006706</v>
+        <v>0.06767350003545758</v>
       </c>
       <c r="F14">
-        <v>0.6576648005009389</v>
+        <v>0.6196208231279101</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1625943522016371</v>
+        <v>0.1626459078276099</v>
       </c>
       <c r="I14">
-        <v>0.001591276837177524</v>
+        <v>0.002067204522918864</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>0.2696424959765764</v>
+        <v>0.241024137060684</v>
       </c>
       <c r="L14">
-        <v>0.04765596565588659</v>
+        <v>0.1165866104478841</v>
       </c>
       <c r="M14">
-        <v>1.509946119638471</v>
+        <v>0.07401776023110962</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.04788659146499619</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.510031468466622</v>
       </c>
       <c r="P14">
-        <v>0.7780842633847129</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.452598983990441</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.781054423996018</v>
+      </c>
+      <c r="S14">
+        <v>1.340466626346412</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.349774447818646</v>
+        <v>1.293624036296222</v>
       </c>
       <c r="C15">
-        <v>0.2328765348964481</v>
+        <v>0.2614277676746326</v>
       </c>
       <c r="D15">
-        <v>0.1557244814974865</v>
+        <v>0.1631159559470632</v>
       </c>
       <c r="E15">
-        <v>0.05976406339861029</v>
+        <v>0.06146340386110438</v>
       </c>
       <c r="F15">
-        <v>0.6420173006377539</v>
+        <v>0.6052954160800965</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1750482158428071</v>
+        <v>0.1750939120345549</v>
       </c>
       <c r="I15">
-        <v>0.00165893115037985</v>
+        <v>0.002144840058845077</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657407966</v>
       </c>
       <c r="K15">
-        <v>0.2666753715073753</v>
+        <v>0.2388288064687458</v>
       </c>
       <c r="L15">
-        <v>0.04329381764532414</v>
+        <v>0.1161728600189651</v>
       </c>
       <c r="M15">
-        <v>1.485313110755612</v>
+        <v>0.07252100498903857</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.04359555398805526</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.485497179664009</v>
       </c>
       <c r="P15">
-        <v>0.7837139490975318</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.427275173800723</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.7864800370334351</v>
+      </c>
+      <c r="S15">
+        <v>1.318598029829388</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.265075664211793</v>
+        <v>1.214626623030796</v>
       </c>
       <c r="C16">
-        <v>0.2194288572635372</v>
+        <v>0.2448016260534445</v>
       </c>
       <c r="D16">
-        <v>0.1482847034720436</v>
+        <v>0.1551857306697855</v>
       </c>
       <c r="E16">
-        <v>0.05827588149896457</v>
+        <v>0.05996947648636564</v>
       </c>
       <c r="F16">
-        <v>0.6323181507695992</v>
+        <v>0.5976489346830576</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.162074697371807</v>
+        <v>0.1620864706540175</v>
       </c>
       <c r="I16">
-        <v>0.001601026118770221</v>
+        <v>0.002032365754597087</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>0.2694592780020102</v>
+        <v>0.2423883387815451</v>
       </c>
       <c r="L16">
-        <v>0.04302544952747311</v>
+        <v>0.1191929403706133</v>
       </c>
       <c r="M16">
-        <v>1.393604792795799</v>
+        <v>0.07094760515501264</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.04342994183931914</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.394099703110612</v>
       </c>
       <c r="P16">
-        <v>0.7976400537228443</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.419611020729576</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.7970803239223017</v>
+      </c>
+      <c r="S16">
+        <v>1.316091411482546</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.224132731641419</v>
+        <v>1.174997593689824</v>
       </c>
       <c r="C17">
-        <v>0.2170307667238234</v>
+        <v>0.2420063919957585</v>
       </c>
       <c r="D17">
-        <v>0.1586465516708415</v>
+        <v>0.1657843014427556</v>
       </c>
       <c r="E17">
-        <v>0.0706075956615102</v>
+        <v>0.07248715159933283</v>
       </c>
       <c r="F17">
-        <v>0.655626235229505</v>
+        <v>0.6202305065751048</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1241932354081996</v>
+        <v>0.1241844495654334</v>
       </c>
       <c r="I17">
-        <v>0.001631276669834314</v>
+        <v>0.002029964203830836</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234516</v>
       </c>
       <c r="K17">
-        <v>0.2780797137723532</v>
+        <v>0.2502065515380387</v>
       </c>
       <c r="L17">
-        <v>0.05342267151834434</v>
+        <v>0.1231293211094187</v>
       </c>
       <c r="M17">
-        <v>1.355616967109398</v>
+        <v>0.07230571519123075</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.05378834659747511</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.356206771056975</v>
       </c>
       <c r="P17">
-        <v>0.8004004838161443</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.464225955600384</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.7971254049121086</v>
+      </c>
+      <c r="S17">
+        <v>1.358630999848245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.217887187672943</v>
+        <v>1.166481206936766</v>
       </c>
       <c r="C18">
-        <v>0.2228659729361624</v>
+        <v>0.2497038862804857</v>
       </c>
       <c r="D18">
-        <v>0.1870212250565828</v>
+        <v>0.1950739020869605</v>
       </c>
       <c r="E18">
-        <v>0.1013192106281764</v>
+        <v>0.1035893301323334</v>
       </c>
       <c r="F18">
-        <v>0.7127266769568763</v>
+        <v>0.6740218177521555</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07134503595781183</v>
+        <v>0.07133648914999213</v>
       </c>
       <c r="I18">
-        <v>0.001410290146274917</v>
+        <v>0.001751478677650908</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146309314</v>
       </c>
       <c r="K18">
-        <v>0.2937627184224887</v>
+        <v>0.2635271473299454</v>
       </c>
       <c r="L18">
-        <v>0.08410510223936996</v>
+        <v>0.1287574596757217</v>
       </c>
       <c r="M18">
-        <v>1.359271988714198</v>
+        <v>0.07647035715286776</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.08429563690000208</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.359797316648098</v>
       </c>
       <c r="P18">
-        <v>0.7949946786381581</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.563828108371894</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.7889188382489536</v>
+      </c>
+      <c r="S18">
+        <v>1.449401946852021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.235491788411593</v>
+        <v>1.179235248660746</v>
       </c>
       <c r="C19">
-        <v>0.2374883505634671</v>
+        <v>0.2681334130723201</v>
       </c>
       <c r="D19">
-        <v>0.2312251069342466</v>
+        <v>0.2407560454235096</v>
       </c>
       <c r="E19">
-        <v>0.1525751835361788</v>
+        <v>0.1554093131981382</v>
       </c>
       <c r="F19">
-        <v>0.7934722330687478</v>
+        <v>0.7494786895808261</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02616394046889781</v>
+        <v>0.02618042840676793</v>
       </c>
       <c r="I19">
-        <v>0.001530401761373312</v>
+        <v>0.001910858259019044</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.0759263476844998</v>
       </c>
       <c r="K19">
-        <v>0.3131074029984831</v>
+        <v>0.2794402435127701</v>
       </c>
       <c r="L19">
-        <v>0.1438247445716883</v>
+        <v>0.135000275244197</v>
       </c>
       <c r="M19">
-        <v>1.395936055253571</v>
+        <v>0.08222061852459106</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1437126424017237</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.396273942655455</v>
       </c>
       <c r="P19">
-        <v>0.7864354720728919</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.697541339305019</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0.7775664049241335</v>
+      </c>
+      <c r="S19">
+        <v>1.569321049196958</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.327798887003013</v>
+        <v>1.25925477450474</v>
       </c>
       <c r="C20">
-        <v>0.272260573478178</v>
+        <v>0.3118913986665177</v>
       </c>
       <c r="D20">
-        <v>0.317556653076835</v>
+        <v>0.3301517964949738</v>
       </c>
       <c r="E20">
-        <v>0.2588303429892775</v>
+        <v>0.262707505061968</v>
       </c>
       <c r="F20">
-        <v>0.9423989936254316</v>
+        <v>0.8872996623667149</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.0005213648800870274</v>
+        <v>0.0006130600764686633</v>
       </c>
       <c r="I20">
-        <v>0.001683108246975706</v>
+        <v>0.002161016321133857</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823835525</v>
       </c>
       <c r="K20">
-        <v>0.3447640420735993</v>
+        <v>0.3043486484707323</v>
       </c>
       <c r="L20">
-        <v>0.2810797017566244</v>
+        <v>0.1428980315281017</v>
       </c>
       <c r="M20">
-        <v>1.525078472879414</v>
+        <v>0.09377030032748124</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.2802542277964761</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.524856741222209</v>
       </c>
       <c r="P20">
-        <v>0.7662034411486296</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.934776135974914</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.7540642636560833</v>
+      </c>
+      <c r="S20">
+        <v>1.778017800230458</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.498563481915824</v>
+        <v>1.415882372796688</v>
       </c>
       <c r="C21">
-        <v>0.3078402498672403</v>
+        <v>0.3564214818289884</v>
       </c>
       <c r="D21">
-        <v>0.3614572724352882</v>
+        <v>0.3761617509423445</v>
       </c>
       <c r="E21">
-        <v>0.2975107205118093</v>
+        <v>0.3018163147998152</v>
       </c>
       <c r="F21">
-        <v>1.012673214507643</v>
+        <v>0.9494384513593701</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.00141921268084011</v>
+        <v>0.001543770035671521</v>
       </c>
       <c r="I21">
-        <v>0.002197914714618499</v>
+        <v>0.002778626079460444</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752018</v>
       </c>
       <c r="K21">
-        <v>0.3512872400389497</v>
+        <v>0.3067584805765584</v>
       </c>
       <c r="L21">
-        <v>0.3250941242405929</v>
+        <v>0.1386751959482986</v>
       </c>
       <c r="M21">
-        <v>1.722552620747308</v>
+        <v>0.1020687403725944</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.3236804548924539</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.721527423665293</v>
       </c>
       <c r="P21">
-        <v>0.7323743228310295</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>2.033211666565336</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0.7239882851337143</v>
+      </c>
+      <c r="S21">
+        <v>1.855975082141072</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.610917499843197</v>
+        <v>1.519117386054631</v>
       </c>
       <c r="C22">
-        <v>0.3284112943160551</v>
+        <v>0.3824838916933402</v>
       </c>
       <c r="D22">
-        <v>0.3859135693868723</v>
+        <v>0.4018788802137578</v>
       </c>
       <c r="E22">
-        <v>0.3173883931601935</v>
+        <v>0.3219247906451841</v>
       </c>
       <c r="F22">
-        <v>1.054589252861291</v>
+        <v>0.9863000648155094</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.002325650629852571</v>
+        <v>0.002449823509860449</v>
       </c>
       <c r="I22">
-        <v>0.002446161772350131</v>
+        <v>0.002993478753582579</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079829286</v>
       </c>
       <c r="K22">
-        <v>0.3555391272517205</v>
+        <v>0.3083998313989298</v>
       </c>
       <c r="L22">
-        <v>0.3466129793414439</v>
+        <v>0.1359076211682257</v>
       </c>
       <c r="M22">
-        <v>1.848407550507289</v>
+        <v>0.1079838198660674</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.3448334575802647</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.846810779573985</v>
       </c>
       <c r="P22">
-        <v>0.711126492189349</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>2.093947848562095</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0.7052667439305367</v>
+      </c>
+      <c r="S22">
+        <v>1.903863737636783</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.553776069571825</v>
+        <v>1.466762736894964</v>
       </c>
       <c r="C23">
-        <v>0.3158091286373121</v>
+        <v>0.3667929862054393</v>
       </c>
       <c r="D23">
-        <v>0.3724257159706781</v>
+        <v>0.3877098954603468</v>
       </c>
       <c r="E23">
-        <v>0.3066749685545602</v>
+        <v>0.3110876219221339</v>
       </c>
       <c r="F23">
-        <v>1.034022426115484</v>
+        <v>0.9683657939419277</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.001819527410492627</v>
+        <v>0.001945716272635956</v>
       </c>
       <c r="I23">
-        <v>0.002001445738363472</v>
+        <v>0.002508756366375486</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787805219</v>
       </c>
       <c r="K23">
-        <v>0.3544460096946018</v>
+        <v>0.3085776021548696</v>
       </c>
       <c r="L23">
-        <v>0.3352111274375176</v>
+        <v>0.1377363742947928</v>
       </c>
       <c r="M23">
-        <v>1.781350609215679</v>
+        <v>0.1052327492809084</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.3336266241910408</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.780063096637576</v>
       </c>
       <c r="P23">
-        <v>0.7222997667909965</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>2.06644558968901</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.7148996612071592</v>
+      </c>
+      <c r="S23">
+        <v>1.88294837124738</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.332571730552502</v>
+        <v>1.263476083524893</v>
       </c>
       <c r="C24">
-        <v>0.2711374730867817</v>
+        <v>0.3109217755940392</v>
       </c>
       <c r="D24">
-        <v>0.3222429986823556</v>
+        <v>0.3349953176523712</v>
       </c>
       <c r="E24">
-        <v>0.2663813768260184</v>
+        <v>0.2703263359986821</v>
       </c>
       <c r="F24">
-        <v>0.9545196573293993</v>
+        <v>0.8987254242833558</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.0004414706977591276</v>
+        <v>0.0005369187579198353</v>
       </c>
       <c r="I24">
-        <v>0.001203858162075022</v>
+        <v>0.001585286063400027</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.076368825553498</v>
       </c>
       <c r="K24">
-        <v>0.3489323975150072</v>
+        <v>0.3079402833950482</v>
       </c>
       <c r="L24">
-        <v>0.2919800332785059</v>
+        <v>0.1443004541243091</v>
       </c>
       <c r="M24">
-        <v>1.527561606840948</v>
+        <v>0.09506661062251354</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.2911142053669238</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.527320829643912</v>
       </c>
       <c r="P24">
-        <v>0.76612721440633</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.957819079211504</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0.753263047499793</v>
+      </c>
+      <c r="S24">
+        <v>1.799112771746991</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.093513147989739</v>
+        <v>1.042988560968723</v>
       </c>
       <c r="C25">
-        <v>0.2237055063558131</v>
+        <v>0.2519166994027415</v>
       </c>
       <c r="D25">
-        <v>0.2684638823737657</v>
+        <v>0.2785653868316444</v>
       </c>
       <c r="E25">
-        <v>0.2231054346395069</v>
+        <v>0.2265501565653167</v>
       </c>
       <c r="F25">
-        <v>0.8715767044576666</v>
+        <v>0.8259476307238813</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1.168596129130783E-05</v>
+        <v>2.276393336053673E-07</v>
       </c>
       <c r="I25">
-        <v>0.001194010395654033</v>
+        <v>0.001306156780466416</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.07595196022662787</v>
       </c>
       <c r="K25">
-        <v>0.3441743995895976</v>
+        <v>0.3081265973291245</v>
       </c>
       <c r="L25">
-        <v>0.2454744911873519</v>
+        <v>0.1518053808089945</v>
       </c>
       <c r="M25">
-        <v>1.254368995674952</v>
+        <v>0.08622952659016825</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.2453436693234181</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.255023618522046</v>
       </c>
       <c r="P25">
-        <v>0.8160379548600449</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.848207417522161</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.7973883952169558</v>
+      </c>
+      <c r="S25">
+        <v>1.714909479251673</v>
       </c>
     </row>
   </sheetData>
